--- a/excel_backward_compatible/DPR Tactics Calculator.xlsx
+++ b/excel_backward_compatible/DPR Tactics Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\GitHub-personal\claire-puppylove\dnd-5e-dpr-tactics-calculator\excel_backward_compatible\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BD5139-2B48-4216-8150-CCC14E8CE35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CCD920-25AE-48EC-9E44-2587086C5795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -827,7 +827,7 @@
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">damage for a single attack.
-DPA=(C*Dc)+(Hx*(D+B))+(M*(Dm))
+DPA=(C*Dc)+(H*(D+B))+(M*(Dm))
 Replace C or H with the accuracy setting accordingly.
 </t>
         </r>
@@ -961,7 +961,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="166">
   <si>
     <t>Row</t>
   </si>
@@ -1380,9 +1380,6 @@
     <t>Notice how the Bonus attack on crit adds about +1 to DPR but the -5 to hit and +10 dmg adds about +5 to DPR and gets you a new rating.</t>
   </si>
   <si>
-    <t>(すべて)</t>
-  </si>
-  <si>
     <t>Dmg per Attack</t>
   </si>
   <si>
@@ -1473,6 +1470,9 @@
   </si>
   <si>
     <t>* https://rpgbot.net/dnd5/characters/fundamental_math/</t>
+  </si>
+  <si>
+    <t>(All)</t>
   </si>
 </sst>
 </file>
@@ -1480,11 +1480,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="165" formatCode="0.0_ "/>
-    <numFmt numFmtId="166" formatCode="\+0;\-0;0"/>
-    <numFmt numFmtId="168" formatCode="\+#,###.??;\-#,###.??;0"/>
-    <numFmt numFmtId="169" formatCode="0.00_ "/>
-    <numFmt numFmtId="170" formatCode="0_ "/>
+    <numFmt numFmtId="164" formatCode="0.0_ "/>
+    <numFmt numFmtId="165" formatCode="\+0;\-0;0"/>
+    <numFmt numFmtId="166" formatCode="\+#,###.??;\-#,###.??;0"/>
+    <numFmt numFmtId="167" formatCode="0.00_ "/>
+    <numFmt numFmtId="168" formatCode="0_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1698,7 +1698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1717,7 +1717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1756,7 +1756,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1768,19 +1768,19 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1789,26 +1789,29 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1816,16 +1819,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="85">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1857,31 +1850,35 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00_ "/>
+      <numFmt numFmtId="167" formatCode="0.00_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="0.000_ "/>
+      <numFmt numFmtId="174" formatCode="0.000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="175" formatCode="0.0000_ "/>
+      <numFmt numFmtId="173" formatCode="0.0000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="174" formatCode="0.00000_ "/>
+      <numFmt numFmtId="172" formatCode="0.00000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="173" formatCode="0.000000_ "/>
+      <numFmt numFmtId="171" formatCode="0.000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="172" formatCode="0.0000000_ "/>
+      <numFmt numFmtId="170" formatCode="0.0000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <font>
@@ -1891,9 +1888,15 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
       </font>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <font>
@@ -1904,7 +1907,7 @@
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <font>
@@ -1915,7 +1918,7 @@
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <font>
@@ -1926,7 +1929,7 @@
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <font>
@@ -1937,30 +1940,31 @@
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
+      <numFmt numFmtId="167" formatCode="0.00_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0_ "/>
+      <numFmt numFmtId="168" formatCode="0_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <font>
@@ -1974,45 +1978,45 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="0.00_ "/>
+      <numFmt numFmtId="167" formatCode="0.00_ "/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
       <alignment horizontal="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0_ "/>
+      <numFmt numFmtId="168" formatCode="0_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <font>
@@ -2020,28 +2024,28 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="\+0;\-0;0"/>
+      <numFmt numFmtId="165" formatCode="\+0;\-0;0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <font>
@@ -2059,28 +2063,28 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0_ "/>
+      <numFmt numFmtId="168" formatCode="0_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <font>
@@ -2088,7 +2092,7 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="\+#,###.??;\-#,###.??;0"/>
+      <numFmt numFmtId="166" formatCode="\+#,###.??;\-#,###.??;0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -2125,22 +2129,22 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <font>
@@ -2148,7 +2152,7 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
@@ -2176,38 +2180,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="45110.564953703702" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="24" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Claire Puppylove" refreshedDate="45111.401013657407" createdVersion="5" refreshedVersion="8" minRefreshableVersion="3" recordCount="24" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="DPRTacticsCalculator"/>
   </cacheSource>
   <cacheFields count="72">
     <cacheField name="Row" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="24" count="24">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
-        <n v="7"/>
-        <n v="8"/>
-        <n v="9"/>
-        <n v="10"/>
-        <n v="11"/>
-        <n v="12"/>
-        <n v="13"/>
-        <n v="14"/>
-        <n v="15"/>
-        <n v="16"/>
-        <n v="17"/>
-        <n v="18"/>
-        <n v="19"/>
-        <n v="20"/>
-        <n v="21"/>
-        <n v="22"/>
-        <n v="23"/>
-        <n v="24"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="24"/>
     </cacheField>
     <cacheField name="Tactic ID" numFmtId="0">
       <sharedItems count="11">
@@ -2235,44 +2214,16 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Description" numFmtId="0">
-      <sharedItems count="22">
-        <s v="Human Fighter(LV5) STR+4 DEX+3_x000a_Longbow attack, get closer"/>
-        <s v="two sword attacks at adv"/>
-        <s v="Same character,_x000a_two longsword attacks std"/>
-        <s v="two longsword attacks adv"/>
-        <s v="Same stats, Great Weapon Fighter style, advantage_x000a_Action: Polearm master glaive twice"/>
-        <s v="Bonus action: Polearm back end"/>
-        <s v="Wizard LV9: INT+5 Fireball 5th SL"/>
-        <s v="Wizard LV9: INT+5 Fireball 5th SL_x000a_(Elemental Adept : Fire)"/>
-        <s v="Wizard LV9: INT+5 Fireball 5th SL_x000a_Enemy is restrained,_x000a_disadvantage on DEX saves"/>
-        <s v="Wizard LV5: INT+4 Toll the Dead_x000a_on damaged enemy"/>
-        <s v="Wizard LV5: INT+4. Cast Bestow Curse (no dmg), enemy has disadvantage on WIS saves from Bestow Curse"/>
-        <s v="Toll the Dead"/>
-        <s v="Toll the Dead."/>
-        <s v="Wizard LV9: INT+5 Fireball 4th SL. But the enemy has 3 legendary resistances. Let's attack 4 times to get one without resistance."/>
-        <s v="more fireball, but SL4"/>
-        <s v="more fireball, but now that it's weak, SL 5!"/>
-        <s v="and then a Scorching Ray at SL3"/>
-        <s v="more fireball, SL4! This is just to test my legendary resistance counter works if interrupted"/>
-        <s v="STR+4, Great Weapon Master Feat_x000a_Action: Great sword twice adv"/>
-        <s v="Bonus action: extra sword attack if crit"/>
-        <s v="STR+4, Great Weapon Master Feat_x000a_Action: Great sword twice adv -5 to hit +10dmg"/>
-        <s v="Bonus action: extra sword attack if crit, samge stats"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Player or Enemy" numFmtId="0">
-      <sharedItems count="1">
-        <s v="PC"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="LV or CR" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="9" count="2">
-        <n v="5"/>
-        <n v="9"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="9"/>
     </cacheField>
     <cacheField name="Round" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6" count="6">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6" count="6">
         <n v="1"/>
         <n v="2"/>
         <n v="3"/>
@@ -2282,577 +2233,199 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Repeat Attack Times" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4" count="3">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="4"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
     </cacheField>
     <cacheField name="Halfling" numFmtId="0">
-      <sharedItems count="1">
-        <s v="NO"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Lucky feat" numFmtId="0">
-      <sharedItems count="1">
-        <s v="NO"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Current Attack is GWM Crit Bonus Attack" numFmtId="0">
-      <sharedItems count="2">
-        <s v="NO"/>
-        <s v="YES"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Great Weapon Master -5 to hit for +10 dmg" numFmtId="0">
-      <sharedItems count="2">
-        <s v="NO"/>
-        <s v="YES"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="War Cleric Channel Divinity +10 to hit" numFmtId="0">
-      <sharedItems count="1">
-        <s v="NO"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Dice added to attack roll" numFmtId="0">
-      <sharedItems count="1">
-        <s v="-"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="More dice added to attack roll" numFmtId="0">
-      <sharedItems count="1">
-        <s v="-"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Dice to attack roll average result" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="1">
-        <n v="0"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
     <cacheField name="More dice to attack roll average result" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="1">
-        <n v="0"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
-    <cacheField name="Assumed Relative Modifier to Hit" numFmtId="168">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-5" maxValue="1" count="3">
-        <n v="0"/>
-        <n v="1"/>
-        <n v="-5"/>
-      </sharedItems>
+    <cacheField name="Assumed Relative Modifier to Hit" numFmtId="166">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-5" maxValue="1"/>
     </cacheField>
     <cacheField name="Add Relative Modifier to Hit" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" count="2">
-        <n v="-1"/>
-        <s v="-"/>
-      </sharedItems>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="-1" maxValue="-1"/>
     </cacheField>
     <cacheField name="Min to Hit" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="13" count="4">
-        <n v="9"/>
-        <n v="8"/>
-        <n v="7"/>
-        <n v="13"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="13"/>
     </cacheField>
     <cacheField name="Min to Crit" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20" count="1">
-        <n v="20"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="20"/>
     </cacheField>
     <cacheField name="Accuracy" numFmtId="0">
-      <sharedItems count="7">
-        <s v="STANDARD"/>
-        <s v="ADVANTAGE"/>
-        <s v="SP DC MISS 1/2 DMG"/>
-        <s v="SP DC M 1/2 ENEMY DVG"/>
-        <s v="SPELL (SAVE DC)"/>
-        <s v="SP DC ENEMY DVG"/>
-        <s v="SP DC M 1/2 LEG RESIST"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Enemy Paralyzed close-range auto-crit on hit" numFmtId="0">
-      <sharedItems count="1">
-        <s v="NO"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
-    <cacheField name="Legendary Resistances Left" numFmtId="170">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" count="5">
-        <s v="-"/>
-        <n v="3"/>
-        <n v="2"/>
-        <n v="1"/>
-        <n v="0"/>
-      </sharedItems>
+    <cacheField name="Legendary Resistances Left" numFmtId="168">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
     </cacheField>
     <cacheField name="Crit % Chance" numFmtId="10">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="9.7500000000000003E-2" count="4">
-        <n v="0.05"/>
-        <n v="9.7500000000000003E-2"/>
-        <n v="0"/>
-        <n v="9.5062500000000095E-3"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="9.7500000000000031E-2"/>
     </cacheField>
     <cacheField name="Hit % Chance" numFmtId="10">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.91" count="9">
-        <n v="0.6"/>
-        <n v="0.87749999999999995"/>
-        <n v="0.65"/>
-        <n v="0.7"/>
-        <n v="0.91"/>
-        <n v="0"/>
-        <n v="8.555625E-2"/>
-        <n v="0.64"/>
-        <n v="6.2399999999999997E-2"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.90999999999999992"/>
     </cacheField>
     <cacheField name="Non-crit Hit % Chance" numFmtId="10">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.91" count="11">
-        <n v="0.55000000000000004"/>
-        <n v="0.78"/>
-        <n v="0.6"/>
-        <n v="0.7"/>
-        <n v="0.91"/>
-        <n v="0.65"/>
-        <n v="0.87749999999999995"/>
-        <n v="0"/>
-        <n v="7.6050000000000006E-2"/>
-        <n v="0.54249999999999998"/>
-        <n v="5.2893750000000003E-2"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.90999999999999992"/>
     </cacheField>
     <cacheField name="Miss % Chance" numFmtId="10">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1" count="9">
-        <n v="0.4"/>
-        <n v="0.1225"/>
-        <n v="0.35"/>
-        <n v="0.3"/>
-        <n v="9.0000000000000094E-2"/>
-        <n v="1"/>
-        <n v="0.91444375"/>
-        <n v="0.36"/>
-        <n v="0.93759999999999999"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.000000000000008E-2" maxValue="1"/>
     </cacheField>
     <cacheField name="Area of Effect" numFmtId="0">
-      <sharedItems count="2">
-        <s v="-"/>
-        <s v="SPHERE"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="AOE size, length or radius" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" count="2">
-        <s v="-"/>
-        <n v="20"/>
-      </sharedItems>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="20" maxValue="20"/>
     </cacheField>
     <cacheField name="Area of Effect Expected Targets" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" count="2">
-        <s v="-"/>
-        <n v="4"/>
-      </sharedItems>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="4"/>
     </cacheField>
     <cacheField name="Great Weapon Fighting Style" numFmtId="0">
-      <sharedItems count="2">
-        <s v="NO"/>
-        <s v="YES"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Damage Dice" numFmtId="0">
-      <sharedItems count="8">
-        <s v="1d8"/>
-        <s v="1d10"/>
-        <s v="1d4"/>
-        <s v="10d6"/>
-        <s v="2d12"/>
-        <s v="-"/>
-        <s v="9d6"/>
-        <s v="2d6"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Bonus Dmg Dice" numFmtId="0">
-      <sharedItems count="1">
-        <s v="-"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="More Bonus Dmg Dice" numFmtId="0">
-      <sharedItems count="1">
-        <s v="-"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Crit-only Mult Dmg Dice" numFmtId="0">
-      <sharedItems count="1">
-        <s v="-"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Crit-only Flat Dmg Dice" numFmtId="0">
-      <sharedItems count="1">
-        <s v="-"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Non-crit Dmg Dice" numFmtId="0">
-      <sharedItems count="1">
-        <s v="-"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Bonus Flat Dmg" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" count="3">
-        <n v="3"/>
-        <n v="4"/>
-        <s v="-"/>
-      </sharedItems>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="4"/>
     </cacheField>
-    <cacheField name="Great Weapon Master Bonus Dmg" numFmtId="166">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" count="2">
-        <s v="-"/>
-        <n v="10"/>
-      </sharedItems>
+    <cacheField name="Great Weapon Master Bonus Dmg" numFmtId="165">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="10"/>
     </cacheField>
     <cacheField name="Feat: Elemental Adept Element" numFmtId="0">
-      <sharedItems count="2">
-        <s v="NONE"/>
-        <s v="FIRE"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Damage Type" numFmtId="0">
-      <sharedItems count="3">
-        <s v="-"/>
-        <s v="FIRE"/>
-        <s v="NECROTIC"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Bonus Dmg Type" numFmtId="0">
-      <sharedItems count="1">
-        <s v="-"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="More Bonus Dmg Type" numFmtId="0">
-      <sharedItems count="1">
-        <s v="-"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Crit Mult Dmg Type" numFmtId="0">
-      <sharedItems count="1">
-        <s v="-"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Crit-only Flat Dmg Type" numFmtId="0">
-      <sharedItems count="1">
-        <s v="-"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Non-crit Dmg Type" numFmtId="0">
-      <sharedItems count="1">
-        <s v="-"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
-    <cacheField name="Base Dice Dmg Avg" numFmtId="169">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="36.6666666666667" count="10">
-        <n v="4.5"/>
-        <n v="6.3"/>
-        <n v="3"/>
-        <n v="35"/>
-        <n v="36.6666666666667"/>
-        <n v="13"/>
-        <n v="0"/>
-        <n v="31.5"/>
-        <n v="7"/>
-        <n v="8.3333333333333304"/>
-      </sharedItems>
+    <cacheField name="Base Dice Dmg Avg" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="36.666666666666664"/>
     </cacheField>
-    <cacheField name="Bonus Dice Dmg Avg" numFmtId="169">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="1">
-        <n v="0"/>
-      </sharedItems>
+    <cacheField name="Bonus Dice Dmg Avg" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
-    <cacheField name="More Bonus Dice Dmg Avg" numFmtId="169">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="1">
-        <n v="0"/>
-      </sharedItems>
+    <cacheField name="More Bonus Dice Dmg Avg" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
-    <cacheField name="Crit-only Mult Dice Dmg Avg" numFmtId="169">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="1">
-        <n v="0"/>
-      </sharedItems>
+    <cacheField name="Crit-only Mult Dice Dmg Avg" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
-    <cacheField name="Crit-only Flat Dice Dmg Avg" numFmtId="169">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="1">
-        <n v="0"/>
-      </sharedItems>
+    <cacheField name="Crit-only Flat Dice Dmg Avg" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
-    <cacheField name="Non-crit Dice Dmg Avg" numFmtId="169">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="1">
-        <n v="0"/>
-      </sharedItems>
+    <cacheField name="Non-crit Dice Dmg Avg" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
-    <cacheField name="Average Damage Added on Crit" numFmtId="169">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="36.6666666666667" count="10">
-        <n v="4.5"/>
-        <n v="6.3"/>
-        <n v="3"/>
-        <n v="35"/>
-        <n v="36.6666666666667"/>
-        <n v="13"/>
-        <n v="0"/>
-        <n v="31.5"/>
-        <n v="7"/>
-        <n v="8.3333333333333304"/>
-      </sharedItems>
+    <cacheField name="Average Damage Added on Crit" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="36.666666666666664"/>
     </cacheField>
-    <cacheField name="Average Dice Damage on Hit" numFmtId="169">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="36.6666666666667" count="10">
-        <n v="4.5"/>
-        <n v="6.3"/>
-        <n v="3"/>
-        <n v="35"/>
-        <n v="36.6666666666667"/>
-        <n v="13"/>
-        <n v="0"/>
-        <n v="31.5"/>
-        <n v="7"/>
-        <n v="8.3333333333333304"/>
-      </sharedItems>
+    <cacheField name="Average Dice Damage on Hit" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="36.666666666666664"/>
     </cacheField>
-    <cacheField name="Average Resulting Crit Dice Damage" numFmtId="169">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="73.3333333333333" count="10">
-        <n v="9"/>
-        <n v="12.6"/>
-        <n v="6"/>
-        <n v="70"/>
-        <n v="73.3333333333333"/>
-        <n v="26"/>
-        <n v="0"/>
-        <n v="63"/>
-        <n v="14"/>
-        <n v="16.6666666666667"/>
-      </sharedItems>
+    <cacheField name="Average Resulting Crit Dice Damage" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="73.333333333333329"/>
     </cacheField>
-    <cacheField name="Average Damage on Miss" numFmtId="169">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="18.3333333333333" count="4">
-        <n v="0"/>
-        <n v="17.5"/>
-        <n v="18.3333333333333"/>
-        <n v="15.75"/>
-      </sharedItems>
+    <cacheField name="Average Damage on Miss" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="18.333333333333332"/>
     </cacheField>
-    <cacheField name="Max Expected Enemy HP at CR or LV" numFmtId="170">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="205" count="2">
-        <n v="145"/>
-        <n v="205"/>
-      </sharedItems>
+    <cacheField name="Max Expected Enemy HP at CR or LV" numFmtId="168">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="145" maxValue="205"/>
     </cacheField>
-    <cacheField name="Damage per Attack" numFmtId="169">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="33.424999999999997" count="18">
-        <n v="4.3499999999999996"/>
-        <n v="7.0687499999999996"/>
-        <n v="5.3250000000000002"/>
-        <n v="8.6482500000000009"/>
-        <n v="5.7525000000000004"/>
-        <n v="29.75"/>
-        <n v="31.1666666666667"/>
-        <n v="33.424999999999997"/>
-        <n v="8.4499999999999993"/>
-        <n v="0"/>
-        <n v="11.407500000000001"/>
-        <n v="15.75"/>
-        <n v="4.9000000000000004"/>
-        <n v="26.774999999999999"/>
-        <n v="10.432499999999999"/>
-        <n v="1.01716875"/>
-        <n v="12.928333333333301"/>
-        <n v="1.2605124999999999"/>
-      </sharedItems>
+    <cacheField name="Damage per Attack" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="33.424999999999997"/>
     </cacheField>
-    <cacheField name="Average Resulting Damage per Target" numFmtId="169">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="33.424999999999997" count="18">
-        <n v="4.3499999999999996"/>
-        <n v="14.137499999999999"/>
-        <n v="10.65"/>
-        <n v="17.296500000000002"/>
-        <n v="5.7525000000000004"/>
-        <n v="29.75"/>
-        <n v="31.1666666666667"/>
-        <n v="33.424999999999997"/>
-        <n v="8.4499999999999993"/>
-        <n v="0"/>
-        <n v="11.407500000000001"/>
-        <n v="15.75"/>
-        <n v="19.600000000000001"/>
-        <n v="26.774999999999999"/>
-        <n v="20.864999999999998"/>
-        <n v="1.01716875"/>
-        <n v="25.856666666666701"/>
-        <n v="1.2605124999999999"/>
-      </sharedItems>
+    <cacheField name="Average Resulting Damage per Target" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="33.424999999999997"/>
     </cacheField>
-    <cacheField name="Average Resulting Damage Total" numFmtId="169">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="133.69999999999999" count="18">
-        <n v="4.3499999999999996"/>
-        <n v="14.137499999999999"/>
-        <n v="10.65"/>
-        <n v="17.296500000000002"/>
-        <n v="5.7525000000000004"/>
-        <n v="119"/>
-        <n v="124.666666666667"/>
-        <n v="133.69999999999999"/>
-        <n v="8.4499999999999993"/>
-        <n v="0"/>
-        <n v="11.407500000000001"/>
-        <n v="63"/>
-        <n v="78.400000000000006"/>
-        <n v="107.1"/>
-        <n v="20.864999999999998"/>
-        <n v="1.01716875"/>
-        <n v="25.856666666666701"/>
-        <n v="1.2605124999999999"/>
-      </sharedItems>
+    <cacheField name="Average Resulting Damage Total" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="133.69999999999999"/>
     </cacheField>
-    <cacheField name="Average Round Damage per Target" numFmtId="169">
-      <sharedItems containsMixedTypes="1" containsNumber="1" count="16">
-        <n v="4.3499999999999996"/>
-        <n v="14.137499999999999"/>
-        <n v="10.65"/>
-        <s v="-"/>
-        <n v="23.048999999999999"/>
-        <n v="29.75"/>
-        <n v="31.1666666666667"/>
-        <n v="33.424999999999997"/>
-        <n v="8.4499999999999993"/>
-        <n v="0"/>
-        <n v="11.407500000000001"/>
-        <n v="15.75"/>
-        <n v="19.600000000000001"/>
-        <n v="26.774999999999999"/>
-        <n v="21.882168750000002"/>
-        <n v="27.117179166666698"/>
-      </sharedItems>
+    <cacheField name="Average Round Damage per Target" numFmtId="167">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="33.424999999999997"/>
     </cacheField>
-    <cacheField name="Average Round Damage Total" numFmtId="169">
-      <sharedItems containsMixedTypes="1" containsNumber="1" count="16">
-        <n v="4.3499999999999996"/>
-        <n v="14.137499999999999"/>
-        <n v="10.65"/>
-        <s v="-"/>
-        <n v="23.048999999999999"/>
-        <n v="119"/>
-        <n v="124.666666666667"/>
-        <n v="133.69999999999999"/>
-        <n v="8.4499999999999993"/>
-        <n v="0"/>
-        <n v="11.407500000000001"/>
-        <n v="63"/>
-        <n v="78.400000000000006"/>
-        <n v="107.1"/>
-        <n v="21.882168750000002"/>
-        <n v="27.117179166666698"/>
-      </sharedItems>
+    <cacheField name="Average Round Damage Total" numFmtId="167">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="133.69999999999999"/>
     </cacheField>
-    <cacheField name="Average Tactic Damage per Target" numFmtId="169">
-      <sharedItems containsMixedTypes="1" containsNumber="1" count="12">
-        <s v="-"/>
-        <n v="18.487500000000001"/>
-        <n v="24.787500000000001"/>
-        <n v="23.048999999999999"/>
-        <n v="29.75"/>
-        <n v="31.1666666666667"/>
-        <n v="33.424999999999997"/>
-        <n v="8.4499999999999993"/>
-        <n v="34.222499999999997"/>
-        <n v="123.375"/>
-        <n v="21.882168750000002"/>
-        <n v="27.117179166666698"/>
-      </sharedItems>
+    <cacheField name="Average Tactic Damage per Target" numFmtId="167">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="8.4500000000000011" maxValue="124.77500000000001"/>
     </cacheField>
-    <cacheField name="Average Tactic Damage Total" numFmtId="169">
-      <sharedItems containsMixedTypes="1" containsNumber="1" count="12">
-        <s v="-"/>
-        <n v="18.487500000000001"/>
-        <n v="24.787500000000001"/>
-        <n v="23.048999999999999"/>
-        <n v="119"/>
-        <n v="124.666666666667"/>
-        <n v="133.69999999999999"/>
-        <n v="8.4499999999999993"/>
-        <n v="34.222499999999997"/>
-        <n v="493.5"/>
-        <n v="21.882168750000002"/>
-        <n v="27.117179166666698"/>
-      </sharedItems>
+    <cacheField name="Average Tactic Damage Total" numFmtId="167">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="8.4500000000000011" maxValue="499.1"/>
     </cacheField>
-    <cacheField name="Damage per Round per Target" numFmtId="169">
-      <sharedItems containsMixedTypes="1" containsNumber="1" count="12">
-        <s v="-"/>
-        <n v="9.2437500000000004"/>
-        <n v="12.393750000000001"/>
-        <n v="23.048999999999999"/>
-        <n v="29.75"/>
-        <n v="31.1666666666667"/>
-        <n v="33.424999999999997"/>
-        <n v="8.4499999999999993"/>
-        <n v="8.5556249999999991"/>
-        <n v="20.5625"/>
-        <n v="21.882168750000002"/>
-        <n v="27.117179166666698"/>
-      </sharedItems>
+    <cacheField name="Damage per Round per Target" numFmtId="167">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="8.4500000000000011" maxValue="33.424999999999997"/>
     </cacheField>
-    <cacheField name="Total Damage per Round" numFmtId="169">
-      <sharedItems containsMixedTypes="1" containsNumber="1" count="12">
-        <s v="-"/>
-        <n v="9.2437500000000004"/>
-        <n v="12.393750000000001"/>
-        <n v="23.048999999999999"/>
-        <n v="119"/>
-        <n v="124.666666666667"/>
-        <n v="133.69999999999999"/>
-        <n v="8.4499999999999993"/>
-        <n v="8.5556249999999991"/>
-        <n v="82.25"/>
-        <n v="21.882168750000002"/>
-        <n v="27.117179166666698"/>
-      </sharedItems>
+    <cacheField name="Total Damage per Round" numFmtId="167">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="8.4500000000000011" maxValue="133.69999999999999"/>
     </cacheField>
-    <cacheField name="DPR per Target Rating" numFmtId="170">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" count="4">
-        <s v="-"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-      </sharedItems>
+    <cacheField name="DPR per Target Rating" numFmtId="168">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
     </cacheField>
     <cacheField name="DPR Rating per Target Description" numFmtId="0">
-      <sharedItems count="4">
-        <s v="-"/>
-        <s v="★☆☆  Low (support, control, debuff)"/>
-        <s v="★★☆  Target (expected)"/>
-        <s v="★★★  High (heavy hitter)"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Total DPR Rating" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" count="5">
-        <s v="-"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="5"/>
-        <n v="4"/>
-      </sharedItems>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="5"/>
     </cacheField>
     <cacheField name="Total DPR Rating Description" numFmtId="0">
-      <sharedItems count="5">
-        <s v="-"/>
-        <s v="★☆☆  Low (support, control, debuff)"/>
-        <s v="★★☆  Target (expected)"/>
-        <s v="🕱🕱🕱🕱  Deadly"/>
-        <s v="★★★  High (heavy hitter)"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
-    <cacheField name="Notes" numFmtId="169">
-      <sharedItems count="4">
-        <s v="-"/>
-        <s v="Let's compare Toll the Dead DPR vs Bestow Curse and Toll the Dead at disadvantage."/>
-        <s v="Only after 4 rounds does the WIS disadvantage increase DPR against just 4 Toll the Deads."/>
-        <s v="Notice how the Bonus attack on crit adds about +1 to DPR but the -5 to hit and +10 dmg adds about +5 to DPR and gets you a new rating."/>
-      </sharedItems>
+    <cacheField name="Notes" numFmtId="167">
+      <sharedItems/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2864,1819 +2437,1791 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="24">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="24">
   <r>
+    <n v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <s v="Human Fighter(LV5) STR+4 DEX+3_x000a_Longbow attack, get closer"/>
+    <s v="PC"/>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="-1"/>
+    <n v="9"/>
+    <n v="20"/>
+    <s v="STANDARD"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <n v="5.0000000000000044E-2"/>
+    <n v="0.6"/>
+    <n v="0.54999999999999993"/>
+    <n v="0.4"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NO"/>
+    <s v="1d8"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="3"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="4.5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4.5"/>
+    <n v="4.5"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="145"/>
+    <n v="4.7250000000000005"/>
+    <n v="4.7250000000000005"/>
+    <n v="4.7250000000000005"/>
+    <n v="4.7250000000000005"/>
+    <n v="4.7250000000000005"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+  </r>
+  <r>
+    <n v="2"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="two sword attacks at adv"/>
+    <s v="PC"/>
+    <n v="5"/>
+    <x v="1"/>
+    <n v="2"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="-"/>
+    <n v="8"/>
+    <n v="20"/>
+    <s v="ADVANTAGE"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <n v="9.7500000000000031E-2"/>
+    <n v="0.87750000000000006"/>
+    <n v="0.78"/>
+    <n v="0.12249999999999994"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NO"/>
+    <s v="1d8"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="4"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="4.5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4.5"/>
+    <n v="4.5"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="145"/>
+    <n v="7.8975"/>
+    <n v="15.795"/>
+    <n v="15.795"/>
+    <n v="15.795"/>
+    <n v="15.795"/>
+    <n v="20.52"/>
+    <n v="20.52"/>
+    <n v="10.26"/>
+    <n v="10.26"/>
+    <n v="2"/>
+    <s v="★★☆☆  Low (support, control, debuff)"/>
+    <n v="2"/>
+    <s v="★★☆☆  Low (support, control, debuff)"/>
+    <s v="-"/>
   </r>
   <r>
+    <n v="3"/>
     <x v="1"/>
     <x v="0"/>
+    <s v="Same character,_x000a_two longsword attacks std"/>
+    <s v="PC"/>
+    <n v="5"/>
     <x v="0"/>
+    <n v="2"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="-"/>
+    <n v="8"/>
+    <n v="20"/>
+    <s v="STANDARD"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <n v="5.0000000000000044E-2"/>
+    <n v="0.65"/>
+    <n v="0.6"/>
+    <n v="0.35"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NO"/>
+    <s v="1d8"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="4"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="4.5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4.5"/>
+    <n v="4.5"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="145"/>
+    <n v="5.7500000000000009"/>
+    <n v="11.500000000000002"/>
+    <n v="11.500000000000002"/>
+    <n v="11.500000000000002"/>
+    <n v="11.500000000000002"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+  </r>
+  <r>
+    <n v="4"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="two longsword attacks adv"/>
+    <s v="PC"/>
+    <n v="5"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="-"/>
+    <n v="8"/>
+    <n v="20"/>
+    <s v="ADVANTAGE"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <n v="9.7500000000000031E-2"/>
+    <n v="0.87750000000000006"/>
+    <n v="0.78"/>
+    <n v="0.12249999999999994"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NO"/>
+    <s v="1d8"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="4"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="4.5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4.5"/>
+    <n v="4.5"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="145"/>
+    <n v="7.8975"/>
+    <n v="15.795"/>
+    <n v="15.795"/>
+    <n v="15.795"/>
+    <n v="15.795"/>
+    <n v="27.295000000000002"/>
+    <n v="27.295000000000002"/>
+    <n v="13.647500000000001"/>
+    <n v="13.647500000000001"/>
+    <n v="3"/>
+    <s v="★★★☆  Target (expected)"/>
+    <n v="3"/>
+    <s v="★★★☆  Target (expected)"/>
+    <s v="-"/>
   </r>
   <r>
+    <n v="5"/>
     <x v="2"/>
     <x v="1"/>
+    <s v="Same stats, Great Weapon Fighter style, advantage_x000a_Action: Polearm master glaive twice"/>
+    <s v="PC"/>
+    <n v="5"/>
     <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="-"/>
+    <n v="8"/>
+    <n v="20"/>
+    <s v="ADVANTAGE"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <n v="9.7500000000000031E-2"/>
+    <n v="0.87750000000000006"/>
+    <n v="0.78"/>
+    <n v="0.12249999999999994"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="YES"/>
+    <s v="1d10"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="4"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="6.3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6.3"/>
+    <n v="6.3"/>
+    <n v="12.6"/>
+    <n v="0"/>
+    <n v="145"/>
+    <n v="9.6525000000000016"/>
+    <n v="19.305000000000003"/>
+    <n v="19.305000000000003"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
   </r>
   <r>
-    <x v="3"/>
+    <n v="6"/>
+    <x v="2"/>
     <x v="1"/>
+    <s v="Bonus action: Polearm back end"/>
+    <s v="PC"/>
+    <n v="5"/>
     <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="-"/>
+    <n v="8"/>
+    <n v="20"/>
+    <s v="ADVANTAGE"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <n v="9.7500000000000031E-2"/>
+    <n v="0.87750000000000006"/>
+    <n v="0.78"/>
+    <n v="0.12249999999999994"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="YES"/>
+    <s v="1d4"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="4"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="145"/>
+    <n v="6.4350000000000005"/>
+    <n v="6.4350000000000005"/>
+    <n v="6.4350000000000005"/>
+    <n v="25.740000000000002"/>
+    <n v="25.740000000000002"/>
+    <n v="25.740000000000002"/>
+    <n v="25.740000000000002"/>
+    <n v="25.740000000000002"/>
+    <n v="25.740000000000002"/>
+    <n v="4"/>
+    <s v="★★★★  High (heavy hitter)"/>
+    <n v="4"/>
+    <s v="★★★★  High (heavy hitter)"/>
+    <s v="-"/>
   </r>
   <r>
-    <x v="4"/>
+    <n v="7"/>
+    <x v="3"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="4"/>
+    <s v="Wizard LV9: INT+5 Fireball 5th SL"/>
+    <s v="PC"/>
+    <n v="9"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="-"/>
+    <n v="7"/>
+    <n v="20"/>
+    <s v="SP DC MISS 1/2 DMG"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0.7"/>
+    <n v="0.7"/>
+    <n v="0.30000000000000004"/>
+    <s v="SPHERE"/>
+    <n v="20"/>
+    <n v="4"/>
+    <s v="NO"/>
+    <s v="10d6"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="FIRE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="35"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="70"/>
+    <n v="17.5"/>
+    <n v="205"/>
+    <n v="29.75"/>
+    <n v="29.75"/>
+    <n v="119"/>
+    <n v="29.75"/>
+    <n v="119"/>
+    <n v="29.75"/>
+    <n v="119"/>
+    <n v="29.75"/>
+    <n v="119"/>
+    <n v="3"/>
+    <s v="★★★☆  Target (expected)"/>
+    <n v="5"/>
+    <s v="🕱🕱🕱🕱🕱  Deadly"/>
+    <s v="-"/>
   </r>
   <r>
+    <n v="8"/>
+    <x v="4"/>
+    <x v="3"/>
+    <s v="Wizard LV9: INT+5 Fireball 5th SL_x000a_(Elemental Adept : Fire)"/>
+    <s v="PC"/>
+    <n v="9"/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="-"/>
+    <n v="7"/>
+    <n v="20"/>
+    <s v="SP DC MISS 1/2 DMG"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0.7"/>
+    <n v="0.7"/>
+    <n v="0.30000000000000004"/>
+    <s v="SPHERE"/>
+    <n v="20"/>
+    <n v="4"/>
+    <s v="NO"/>
+    <s v="10d6"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="FIRE"/>
+    <s v="FIRE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="36.666666666666664"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="36.666666666666664"/>
+    <n v="36.666666666666664"/>
+    <n v="73.333333333333329"/>
+    <n v="18.333333333333332"/>
+    <n v="205"/>
+    <n v="31.166666666666664"/>
+    <n v="31.166666666666664"/>
+    <n v="124.66666666666666"/>
+    <n v="31.166666666666664"/>
+    <n v="124.66666666666666"/>
+    <n v="31.166666666666664"/>
+    <n v="124.66666666666666"/>
+    <n v="31.166666666666664"/>
+    <n v="124.66666666666666"/>
+    <n v="3"/>
+    <s v="★★★☆  Target (expected)"/>
+    <n v="5"/>
+    <s v="🕱🕱🕱🕱🕱  Deadly"/>
+    <s v="-"/>
+  </r>
+  <r>
+    <n v="9"/>
     <x v="5"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="5"/>
+    <s v="Wizard LV9: INT+5 Fireball 5th SL_x000a_Enemy is restrained,_x000a_disadvantage on DEX saves"/>
+    <s v="PC"/>
+    <n v="9"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="-"/>
+    <n v="7"/>
+    <n v="20"/>
+    <s v="SP DC M 1/2 ENEMY DVG"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0.90999999999999992"/>
+    <n v="0.90999999999999992"/>
+    <n v="9.000000000000008E-2"/>
+    <s v="SPHERE"/>
+    <n v="20"/>
+    <n v="4"/>
+    <s v="NO"/>
+    <s v="10d6"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="FIRE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="35"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="70"/>
+    <n v="17.5"/>
+    <n v="205"/>
+    <n v="33.424999999999997"/>
+    <n v="33.424999999999997"/>
+    <n v="133.69999999999999"/>
+    <n v="33.424999999999997"/>
+    <n v="133.69999999999999"/>
+    <n v="33.424999999999997"/>
+    <n v="133.69999999999999"/>
+    <n v="33.424999999999997"/>
+    <n v="133.69999999999999"/>
+    <n v="3"/>
+    <s v="★★★☆  Target (expected)"/>
+    <n v="5"/>
+    <s v="🕱🕱🕱🕱🕱  Deadly"/>
+    <s v="-"/>
   </r>
   <r>
+    <n v="10"/>
     <x v="6"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="6"/>
+    <x v="4"/>
+    <s v="Wizard LV5: INT+4 Toll the Dead_x000a_on damaged enemy"/>
+    <s v="PC"/>
+    <n v="5"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="-"/>
+    <n v="8"/>
+    <n v="20"/>
+    <s v="SPELL (SAVE DC)"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.35"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NO"/>
+    <s v="2d12"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="NECROTIC"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="13"/>
+    <n v="13"/>
+    <n v="26"/>
+    <n v="0"/>
+    <n v="145"/>
+    <n v="8.4500000000000011"/>
+    <n v="8.4500000000000011"/>
+    <n v="8.4500000000000011"/>
+    <n v="8.4500000000000011"/>
+    <n v="8.4500000000000011"/>
+    <n v="8.4500000000000011"/>
+    <n v="8.4500000000000011"/>
+    <n v="8.4500000000000011"/>
+    <n v="8.4500000000000011"/>
+    <n v="2"/>
+    <s v="★★☆☆  Low (support, control, debuff)"/>
+    <n v="2"/>
+    <s v="★★☆☆  Low (support, control, debuff)"/>
+    <s v="Let's compare Toll the Dead DPR vs Bestow Curse and Toll the Dead at disadvantage."/>
   </r>
   <r>
+    <n v="11"/>
     <x v="7"/>
     <x v="4"/>
-    <x v="3"/>
-    <x v="7"/>
+    <s v="Wizard LV5: INT+4. Cast Bestow Curse (no dmg), enemy has disadvantage on WIS saves from Bestow Curse"/>
+    <s v="PC"/>
+    <n v="5"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="-"/>
+    <n v="8"/>
+    <n v="20"/>
+    <s v="SPELL (SAVE DC)"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.35"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="145"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
   </r>
   <r>
-    <x v="8"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
+    <n v="12"/>
+    <x v="7"/>
+    <x v="4"/>
+    <s v="Toll the Dead"/>
+    <s v="PC"/>
+    <n v="5"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="-"/>
+    <n v="8"/>
+    <n v="20"/>
+    <s v="SP DC ENEMY DVG"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0.87750000000000006"/>
+    <n v="0.87750000000000006"/>
+    <n v="0.12249999999999994"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NO"/>
+    <s v="2d12"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="NECROTIC"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="13"/>
+    <n v="13"/>
+    <n v="26"/>
+    <n v="0"/>
+    <n v="145"/>
+    <n v="11.407500000000001"/>
+    <n v="11.407500000000001"/>
+    <n v="11.407500000000001"/>
+    <n v="11.407500000000001"/>
+    <n v="11.407500000000001"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
   </r>
   <r>
-    <x v="9"/>
-    <x v="6"/>
+    <n v="13"/>
+    <x v="7"/>
     <x v="4"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="Toll the Dead"/>
+    <s v="PC"/>
+    <n v="5"/>
     <x v="2"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="-"/>
+    <n v="8"/>
+    <n v="20"/>
+    <s v="SP DC ENEMY DVG"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0.87750000000000006"/>
+    <n v="0.87750000000000006"/>
+    <n v="0.12249999999999994"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NO"/>
+    <s v="2d12"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="NECROTIC"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="13"/>
+    <n v="13"/>
+    <n v="26"/>
+    <n v="0"/>
+    <n v="145"/>
+    <n v="11.407500000000001"/>
+    <n v="11.407500000000001"/>
+    <n v="11.407500000000001"/>
+    <n v="11.407500000000001"/>
+    <n v="11.407500000000001"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
   </r>
   <r>
-    <x v="10"/>
+    <n v="14"/>
     <x v="7"/>
     <x v="4"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="Toll the Dead."/>
+    <s v="PC"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="1"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="-"/>
+    <n v="8"/>
+    <n v="20"/>
+    <s v="SP DC ENEMY DVG"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0.87750000000000006"/>
+    <n v="0.87750000000000006"/>
+    <n v="0.12249999999999994"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NO"/>
+    <s v="2d12"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="NECROTIC"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="13"/>
+    <n v="13"/>
+    <n v="26"/>
+    <n v="0"/>
+    <n v="145"/>
+    <n v="11.407500000000001"/>
+    <n v="11.407500000000001"/>
+    <n v="11.407500000000001"/>
+    <n v="11.407500000000001"/>
+    <n v="11.407500000000001"/>
+    <n v="34.222500000000004"/>
+    <n v="34.222500000000004"/>
+    <n v="8.5556250000000009"/>
+    <n v="8.5556250000000009"/>
+    <n v="2"/>
+    <s v="★★☆☆  Low (support, control, debuff)"/>
+    <n v="2"/>
+    <s v="★★☆☆  Low (support, control, debuff)"/>
+    <s v="Only after 4 rounds does the WIS disadvantage increase DPR against just 4 Toll the Deads."/>
   </r>
   <r>
-    <x v="11"/>
-    <x v="7"/>
-    <x v="4"/>
-    <x v="11"/>
+    <n v="15"/>
+    <x v="8"/>
+    <x v="2"/>
+    <s v="Wizard LV9: INT+5 Fireball 4th SL. But the enemy has 3 legendary resistances. Let's attack 4 times to get one without resistance."/>
+    <s v="PC"/>
+    <n v="9"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="-"/>
+    <n v="7"/>
+    <n v="20"/>
+    <s v="SP DC M 1/2 LEG RESIST"/>
+    <s v="NO"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="SPHERE"/>
+    <n v="20"/>
+    <n v="4"/>
+    <s v="NO"/>
+    <s v="9d6"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="FIRE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="31.5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="31.5"/>
+    <n v="31.5"/>
+    <n v="63"/>
+    <n v="15.75"/>
+    <n v="205"/>
+    <n v="15.75"/>
+    <n v="15.75"/>
+    <n v="63"/>
+    <n v="15.75"/>
+    <n v="63"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
   </r>
   <r>
-    <x v="12"/>
-    <x v="7"/>
-    <x v="4"/>
-    <x v="11"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="16"/>
+    <x v="8"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="more fireball, but SL4"/>
+    <s v="PC"/>
+    <n v="9"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="-"/>
+    <n v="7"/>
+    <n v="20"/>
+    <s v="SP DC M 1/2 LEG RESIST"/>
+    <s v="NO"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="SPHERE"/>
+    <n v="20"/>
+    <n v="4"/>
+    <s v="NO"/>
+    <s v="9d6"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="FIRE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="31.5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="31.5"/>
+    <n v="31.5"/>
+    <n v="63"/>
+    <n v="15.75"/>
+    <n v="205"/>
+    <n v="15.75"/>
+    <n v="15.75"/>
+    <n v="63"/>
+    <n v="15.75"/>
+    <n v="63"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
   </r>
   <r>
-    <x v="13"/>
-    <x v="7"/>
-    <x v="4"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="17"/>
+    <x v="8"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="more fireball, but SL4"/>
+    <s v="PC"/>
+    <n v="9"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
+    <n v="1"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="-"/>
+    <n v="7"/>
+    <n v="20"/>
+    <s v="SP DC M 1/2 LEG RESIST"/>
+    <s v="NO"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="SPHERE"/>
+    <n v="20"/>
+    <n v="4"/>
+    <s v="NO"/>
+    <s v="9d6"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="FIRE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="31.5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="31.5"/>
+    <n v="31.5"/>
+    <n v="63"/>
+    <n v="15.75"/>
+    <n v="205"/>
+    <n v="15.75"/>
+    <n v="15.75"/>
+    <n v="63"/>
+    <n v="15.75"/>
+    <n v="63"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
   </r>
   <r>
-    <x v="14"/>
+    <n v="18"/>
     <x v="8"/>
     <x v="2"/>
-    <x v="13"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="7"/>
+    <s v="more fireball, but now that it's weak, SL 5!"/>
+    <s v="PC"/>
+    <n v="9"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="-"/>
+    <n v="7"/>
+    <n v="20"/>
+    <s v="SP DC M 1/2 LEG RESIST"/>
+    <s v="NO"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.7"/>
+    <n v="0.7"/>
+    <n v="0.30000000000000004"/>
+    <s v="SPHERE"/>
+    <n v="20"/>
+    <n v="4"/>
+    <s v="NO"/>
+    <s v="10d6"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="FIRE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="35"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="70"/>
+    <n v="17.5"/>
+    <n v="205"/>
+    <n v="29.75"/>
+    <n v="29.75"/>
+    <n v="119"/>
+    <n v="29.75"/>
+    <n v="119"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
   </r>
   <r>
-    <x v="15"/>
+    <n v="19"/>
     <x v="8"/>
     <x v="2"/>
-    <x v="14"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="and then a Scorching Ray at SL3"/>
+    <s v="PC"/>
+    <n v="9"/>
+    <x v="4"/>
+    <n v="4"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="-"/>
+    <n v="7"/>
+    <n v="20"/>
+    <s v="STANDARD"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <n v="5.0000000000000044E-2"/>
+    <n v="0.7"/>
+    <n v="0.64999999999999991"/>
+    <n v="0.30000000000000004"/>
+    <s v="SPHERE"/>
+    <n v="20"/>
+    <n v="4"/>
+    <s v="NO"/>
+    <s v="2d6"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="FIRE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="7"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="205"/>
+    <n v="5.25"/>
+    <n v="21"/>
+    <n v="84"/>
+    <n v="21"/>
+    <n v="84"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
   </r>
   <r>
-    <x v="16"/>
+    <n v="20"/>
     <x v="8"/>
     <x v="2"/>
-    <x v="14"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="2"/>
+    <s v="more fireball, SL4! This is just to test my legendary resistance counter works if interrupted"/>
+    <s v="PC"/>
+    <n v="9"/>
     <x v="5"/>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="-"/>
+    <n v="7"/>
+    <n v="20"/>
+    <s v="SP DC M 1/2 LEG RESIST"/>
+    <s v="NO"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.7"/>
+    <n v="0.7"/>
+    <n v="0.30000000000000004"/>
+    <s v="SPHERE"/>
+    <n v="20"/>
+    <n v="4"/>
+    <s v="NO"/>
+    <s v="9d6"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="FIRE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="31.5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="31.5"/>
+    <n v="31.5"/>
+    <n v="63"/>
+    <n v="15.75"/>
+    <n v="205"/>
+    <n v="26.774999999999999"/>
+    <n v="26.774999999999999"/>
+    <n v="107.1"/>
+    <n v="26.774999999999999"/>
+    <n v="107.1"/>
+    <n v="124.77500000000001"/>
+    <n v="499.1"/>
+    <n v="20.795833333333334"/>
+    <n v="83.183333333333337"/>
+    <n v="3"/>
+    <s v="★★★☆  Target (expected)"/>
+    <n v="5"/>
+    <s v="🕱🕱🕱🕱🕱  Deadly"/>
+    <s v="-"/>
   </r>
   <r>
-    <x v="17"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="15"/>
+    <n v="21"/>
+    <x v="9"/>
+    <x v="5"/>
+    <s v="STR+4, Great Weapon Master Feat_x000a_Action: Great sword twice adv"/>
+    <s v="PC"/>
+    <n v="5"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="-"/>
+    <n v="8"/>
+    <n v="20"/>
+    <s v="ADVANTAGE"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <n v="9.7500000000000031E-2"/>
+    <n v="0.87750000000000006"/>
+    <n v="0.78"/>
+    <n v="0.12249999999999994"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="YES"/>
+    <s v="2d6"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="4"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="8.3333333333333339"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="8.3333333333333339"/>
+    <n v="8.3333333333333339"/>
+    <n v="16.666666666666668"/>
+    <n v="0"/>
+    <n v="145"/>
+    <n v="11.635000000000002"/>
+    <n v="23.270000000000003"/>
+    <n v="23.270000000000003"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
   </r>
   <r>
-    <x v="18"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="16"/>
+    <n v="22"/>
+    <x v="9"/>
+    <x v="5"/>
+    <s v="Bonus action: extra sword attack if crit"/>
+    <s v="PC"/>
+    <n v="5"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="YES"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="-"/>
+    <n v="8"/>
+    <n v="20"/>
+    <s v="ADVANTAGE"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <n v="9.506250000000006E-3"/>
+    <n v="8.5556250000000028E-2"/>
+    <n v="7.605000000000002E-2"/>
+    <n v="0.91444375"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="YES"/>
+    <s v="2d6"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="4"/>
+    <s v="-"/>
+    <s v="NONE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="8.3333333333333339"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="8.3333333333333339"/>
+    <n v="8.3333333333333339"/>
+    <n v="16.666666666666668"/>
+    <n v="0"/>
+    <n v="145"/>
+    <n v="1.1344125000000005"/>
+    <n v="1.1344125000000005"/>
+    <n v="1.1344125000000005"/>
+    <n v="24.404412500000003"/>
+    <n v="24.404412500000003"/>
+    <n v="24.404412500000003"/>
+    <n v="24.404412500000003"/>
+    <n v="24.404412500000003"/>
+    <n v="24.404412500000003"/>
+    <n v="4"/>
+    <s v="★★★★  High (heavy hitter)"/>
+    <n v="4"/>
+    <s v="★★★★  High (heavy hitter)"/>
+    <s v="-"/>
   </r>
   <r>
-    <x v="19"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="17"/>
+    <n v="23"/>
+    <x v="10"/>
+    <x v="5"/>
+    <s v="STR+4, Great Weapon Master Feat_x000a_Action: Great sword twice adv -5 to hit +10dmg"/>
+    <s v="PC"/>
+    <n v="5"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="13"/>
-    <x v="13"/>
-    <x v="13"/>
-    <x v="13"/>
-    <x v="13"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="YES"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="-5"/>
+    <s v="-"/>
+    <n v="13"/>
+    <n v="20"/>
+    <s v="ADVANTAGE"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <n v="9.7500000000000031E-2"/>
+    <n v="0.64"/>
+    <n v="0.54249999999999998"/>
+    <n v="0.36"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="YES"/>
+    <s v="2d6"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="4"/>
+    <n v="10"/>
+    <s v="NONE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="8.3333333333333339"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="8.3333333333333339"/>
+    <n v="8.3333333333333339"/>
+    <n v="16.666666666666668"/>
+    <n v="0"/>
+    <n v="145"/>
+    <n v="15.105833333333335"/>
+    <n v="30.21166666666667"/>
+    <n v="30.21166666666667"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
   </r>
   <r>
-    <x v="20"/>
-    <x v="9"/>
-    <x v="5"/>
-    <x v="18"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="14"/>
-    <x v="14"/>
-    <x v="14"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="9"/>
-    <x v="5"/>
-    <x v="19"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="14"/>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="22"/>
+    <n v="24"/>
     <x v="10"/>
     <x v="5"/>
-    <x v="20"/>
+    <s v="Bonus action: extra sword attack if crit, samge stats"/>
+    <s v="PC"/>
+    <n v="5"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="16"/>
-    <x v="16"/>
-    <x v="16"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="21"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="10"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="17"/>
-    <x v="17"/>
-    <x v="17"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="3"/>
+    <n v="1"/>
+    <s v="NO"/>
+    <s v="NO"/>
+    <s v="YES"/>
+    <s v="YES"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="-5"/>
+    <s v="-"/>
+    <n v="13"/>
+    <n v="20"/>
+    <s v="ADVANTAGE"/>
+    <s v="NO"/>
+    <s v="-"/>
+    <n v="9.506250000000006E-3"/>
+    <n v="6.2400000000000018E-2"/>
+    <n v="5.289375000000001E-2"/>
+    <n v="0.93759999999999999"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="YES"/>
+    <s v="2d6"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="4"/>
+    <n v="10"/>
+    <s v="NONE"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <n v="8.3333333333333339"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="8.3333333333333339"/>
+    <n v="8.3333333333333339"/>
+    <n v="16.666666666666668"/>
+    <n v="0"/>
+    <n v="145"/>
+    <n v="1.4728187500000007"/>
+    <n v="1.4728187500000007"/>
+    <n v="1.4728187500000007"/>
+    <n v="31.684485416666671"/>
+    <n v="31.684485416666671"/>
+    <n v="31.684485416666671"/>
+    <n v="31.684485416666671"/>
+    <n v="31.684485416666671"/>
+    <n v="31.684485416666671"/>
+    <n v="4"/>
+    <s v="★★★★  High (heavy hitter)"/>
+    <n v="4"/>
+    <s v="★★★★  High (heavy hitter)"/>
+    <s v="Notice how the Bonus attack on crit adds about +1 to DPR but the -5 to hit and +10 dmg adds about +5 to DPR and gets you a new rating."/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="DPRSummary" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" grandTotalCaption="Average" errorCaption="-" showError="1" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="DPRSummary" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" grandTotalCaption="Average" errorCaption="-" showError="1" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="A3:M36" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="72">
-    <pivotField compact="0" showAll="0">
-      <items count="25">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
       <items count="12">
         <item x="9"/>
@@ -4728,7 +4273,7 @@
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="168" showAll="0"/>
+    <pivotField compact="0" numFmtId="166" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
@@ -4758,216 +4303,29 @@
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="169" showAll="0"/>
-    <pivotField compact="0" numFmtId="169" showAll="0"/>
-    <pivotField compact="0" numFmtId="169" showAll="0"/>
-    <pivotField compact="0" numFmtId="169" showAll="0"/>
-    <pivotField compact="0" numFmtId="169" showAll="0"/>
-    <pivotField compact="0" numFmtId="169" showAll="0"/>
-    <pivotField compact="0" numFmtId="169" showAll="0"/>
-    <pivotField compact="0" numFmtId="169" showAll="0"/>
-    <pivotField compact="0" numFmtId="169" showAll="0"/>
-    <pivotField compact="0" numFmtId="169" showAll="0"/>
-    <pivotField compact="0" numFmtId="170" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="169" showAll="0">
-      <items count="19">
-        <item x="9"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="14"/>
-        <item x="10"/>
-        <item x="16"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="169" showAll="0">
-      <items count="19">
-        <item x="9"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="169" showAll="0">
-      <items count="19">
-        <item x="9"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" showAll="0">
-      <items count="17">
-        <item x="9"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="4"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" showAll="0">
-      <items count="17">
-        <item x="9"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="4"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" showAll="0">
-      <items count="13">
-        <item x="7"/>
-        <item x="1"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" showAll="0">
-      <items count="13">
-        <item x="7"/>
-        <item x="1"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" showAll="0">
-      <items count="13">
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" showAll="0">
-      <items count="13">
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField compact="0" numFmtId="167" showAll="0"/>
+    <pivotField compact="0" numFmtId="167" showAll="0"/>
+    <pivotField compact="0" numFmtId="167" showAll="0"/>
+    <pivotField compact="0" numFmtId="167" showAll="0"/>
+    <pivotField compact="0" numFmtId="167" showAll="0"/>
+    <pivotField compact="0" numFmtId="167" showAll="0"/>
+    <pivotField compact="0" numFmtId="167" showAll="0"/>
+    <pivotField compact="0" numFmtId="167" showAll="0"/>
+    <pivotField compact="0" numFmtId="167" showAll="0"/>
+    <pivotField compact="0" numFmtId="167" showAll="0"/>
+    <pivotField compact="0" numFmtId="168" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
   </pivotFields>
@@ -5131,12 +4489,6 @@
     <dataField name="DPR Total Rating" fld="69" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="15">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
     <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
@@ -5153,6 +4505,12 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="8">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -5275,7 +4633,38 @@
       <calculatedColumnFormula>_xlfn.IFS(DPRTacticsCalculator[[#This Row],[LV or CR]]=1,85,DPRTacticsCalculator[[#This Row],[LV or CR]]=2,100,DPRTacticsCalculator[[#This Row],[LV or CR]]=3,115,DPRTacticsCalculator[[#This Row],[LV or CR]]=4,130,DPRTacticsCalculator[[#This Row],[LV or CR]]=5,145,DPRTacticsCalculator[[#This Row],[LV or CR]]=6,160,DPRTacticsCalculator[[#This Row],[LV or CR]]=7,175,DPRTacticsCalculator[[#This Row],[LV or CR]]=8,190,DPRTacticsCalculator[[#This Row],[LV or CR]]=9,205,DPRTacticsCalculator[[#This Row],[LV or CR]]=10,220,DPRTacticsCalculator[[#This Row],[LV or CR]]=11,235,DPRTacticsCalculator[[#This Row],[LV or CR]]=12,250,DPRTacticsCalculator[[#This Row],[LV or CR]]=13,265,DPRTacticsCalculator[[#This Row],[LV or CR]]=14,280,DPRTacticsCalculator[[#This Row],[LV or CR]]=15,295,DPRTacticsCalculator[[#This Row],[LV or CR]]=16,310,DPRTacticsCalculator[[#This Row],[LV or CR]]=17,325,DPRTacticsCalculator[[#This Row],[LV or CR]]=18,340,DPRTacticsCalculator[[#This Row],[LV or CR]]=19,355,DPRTacticsCalculator[[#This Row],[LV or CR]]=20,400)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Damage per Attack" dataDxfId="27">
-      <calculatedColumnFormula>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</calculatedColumnFormula>
+      <calculatedColumnFormula>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Average Resulting Damage per Target" dataDxfId="26">
       <calculatedColumnFormula>N("Average damage for the attack row")+((N("R: Repeated attack times (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Repeat Attack Times]]),DPRTacticsCalculator[[#This Row],[Repeat Attack Times]],1))*DPRTacticsCalculator[[#This Row],[Damage per Attack]])</calculatedColumnFormula>
@@ -5304,7 +4693,7 @@
     <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="DPR per Target Rating" dataDxfId="18">
       <calculatedColumnFormula>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="DPR Rating per Target Description" dataDxfId="1">
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="DPR Rating per Target Description" dataDxfId="17">
       <calculatedColumnFormula array="1">_xlfn.IFS(
     ISNUMBER(DPRTacticsCalculator[[#This Row],[DPR per Target Rating]])=FALSE,"-",
     DPRTacticsCalculator[[#This Row],[DPR per Target Rating]]=0,"☆☆☆☆  No damage",
@@ -5315,10 +4704,10 @@
     DPRTacticsCalculator[[#This Row],[DPR per Target Rating]]=5,"🕱🕱🕱🕱🕱  Deadly"
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Total DPR Rating" dataDxfId="17">
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Total DPR Rating" dataDxfId="16">
       <calculatedColumnFormula>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="Total DPR Rating Description" dataDxfId="0">
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="Total DPR Rating Description" dataDxfId="15">
       <calculatedColumnFormula array="1">_xlfn.IFS(
     ISNUMBER(DPRTacticsCalculator[[#This Row],[Total DPR Rating]])=FALSE,"-",
     DPRTacticsCalculator[[#This Row],[Total DPR Rating]]=0,"☆☆☆☆  No damage",
@@ -5329,7 +4718,7 @@
     DPRTacticsCalculator[[#This Row],[Total DPR Rating]]=5,"🕱🕱🕱🕱🕱  Deadly"
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Notes" dataDxfId="16"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Notes" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -5339,18 +4728,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="DPRRatingExplanation" displayName="DPRRatingExplanation" ref="A1:F21" totalsRowShown="0">
   <autoFilter ref="A1:F21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CR or LV" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Max Expected _x000a_Enemy HP" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Low DPR _x000a_Threshold" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CR or LV" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Max Expected _x000a_Enemy HP" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Low DPR _x000a_Threshold" dataDxfId="3">
       <calculatedColumnFormula>$B2/I$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Target DPR _x000a_Threshold" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Target DPR _x000a_Threshold" dataDxfId="2">
       <calculatedColumnFormula>$B2/J$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="High DPR _x000a_Threshold" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="High DPR _x000a_Threshold" dataDxfId="1">
       <calculatedColumnFormula>$B2/K$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="OP DPR _x000a_Threshold" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="OP DPR _x000a_Threshold" dataDxfId="0">
       <calculatedColumnFormula>$B2/L$2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6113,24 +5502,55 @@
         <v>145</v>
       </c>
       <c r="BG2" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
-        <v>4.3499999999999996</v>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
+        <v>4.7250000000000005</v>
       </c>
       <c r="BH2" s="34">
         <f>N("Average damage for the attack row")+((N("R: Repeated attack times (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Repeat Attack Times]]),DPRTacticsCalculator[[#This Row],[Repeat Attack Times]],1))*DPRTacticsCalculator[[#This Row],[Damage per Attack]])</f>
-        <v>4.3499999999999996</v>
+        <v>4.7250000000000005</v>
       </c>
       <c r="BI2" s="34">
         <f>N("Damage per target*NumTargets")+(DPRTacticsCalculator[[#This Row],[Average Resulting Damage per Target]]*(N("AOE: Area of Effect targets (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]]),DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]],1)))</f>
-        <v>4.3499999999999996</v>
+        <v>4.7250000000000005</v>
       </c>
       <c r="BJ2" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this round")+N("Sum the attacks with the same tactic AND round number")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])),"-")</f>
-        <v>4.3499999999999996</v>
+        <v>4.7250000000000005</v>
       </c>
       <c r="BK2" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Round Damage per Target]]),(DPRTacticsCalculator[[#This Row],[Average Round Damage per Target]]*(N("AOE: Area of Effect targets (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]]),DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]],1))),"-")</f>
-        <v>4.3499999999999996</v>
+        <v>4.7250000000000005</v>
       </c>
       <c r="BL2" s="34" t="str">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this tactic")+N("Sum the attacks with the same tactic ID")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])),"-")</f>
@@ -6189,7 +5609,7 @@
       <c r="BX2" s="16"/>
       <c r="BY2" s="16"/>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" ht="28.8">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -6387,40 +5807,71 @@
         <v>145</v>
       </c>
       <c r="BG3" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
-        <v>7.0687499999999996</v>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
+        <v>7.8975</v>
       </c>
       <c r="BH3" s="34">
         <f>N("Average damage for the attack row")+((N("R: Repeated attack times (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Repeat Attack Times]]),DPRTacticsCalculator[[#This Row],[Repeat Attack Times]],1))*DPRTacticsCalculator[[#This Row],[Damage per Attack]])</f>
-        <v>14.137499999999999</v>
+        <v>15.795</v>
       </c>
       <c r="BI3" s="34">
         <f>N("Damage per target*NumTargets")+(DPRTacticsCalculator[[#This Row],[Average Resulting Damage per Target]]*(N("AOE: Area of Effect targets (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]]),DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]],1)))</f>
-        <v>14.137499999999999</v>
+        <v>15.795</v>
       </c>
       <c r="BJ3" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this round")+N("Sum the attacks with the same tactic AND round number")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])),"-")</f>
-        <v>14.137499999999999</v>
+        <v>15.795</v>
       </c>
       <c r="BK3" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Round Damage per Target]]),(DPRTacticsCalculator[[#This Row],[Average Round Damage per Target]]*(N("AOE: Area of Effect targets (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]]),DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]],1))),"-")</f>
-        <v>14.137499999999999</v>
+        <v>15.795</v>
       </c>
       <c r="BL3" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this tactic")+N("Sum the attacks with the same tactic ID")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])),"-")</f>
-        <v>18.487499999999997</v>
+        <v>20.52</v>
       </c>
       <c r="BM3" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this tactic")+N("Sum the attacks with the same tactic ID")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage Total]:[Average Resulting Damage Total]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])),"-")</f>
-        <v>18.487499999999997</v>
+        <v>20.52</v>
       </c>
       <c r="BN3" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage per Target]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage per Target]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
-        <v>9.2437499999999986</v>
+        <v>10.26</v>
       </c>
       <c r="BO3" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
-        <v>9.2437499999999986</v>
+        <v>10.26</v>
       </c>
       <c r="BP3" s="35">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
@@ -6661,24 +6112,55 @@
         <v>145</v>
       </c>
       <c r="BG4" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
-        <v>5.3250000000000002</v>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
+        <v>5.7500000000000009</v>
       </c>
       <c r="BH4" s="34">
         <f>N("Average damage for the attack row")+((N("R: Repeated attack times (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Repeat Attack Times]]),DPRTacticsCalculator[[#This Row],[Repeat Attack Times]],1))*DPRTacticsCalculator[[#This Row],[Damage per Attack]])</f>
-        <v>10.65</v>
+        <v>11.500000000000002</v>
       </c>
       <c r="BI4" s="34">
         <f>N("Damage per target*NumTargets")+(DPRTacticsCalculator[[#This Row],[Average Resulting Damage per Target]]*(N("AOE: Area of Effect targets (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]]),DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]],1)))</f>
-        <v>10.65</v>
+        <v>11.500000000000002</v>
       </c>
       <c r="BJ4" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this round")+N("Sum the attacks with the same tactic AND round number")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])),"-")</f>
-        <v>10.65</v>
+        <v>11.500000000000002</v>
       </c>
       <c r="BK4" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Round Damage per Target]]),(DPRTacticsCalculator[[#This Row],[Average Round Damage per Target]]*(N("AOE: Area of Effect targets (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]]),DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]],1))),"-")</f>
-        <v>10.65</v>
+        <v>11.500000000000002</v>
       </c>
       <c r="BL4" s="34" t="str">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this tactic")+N("Sum the attacks with the same tactic ID")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])),"-")</f>
@@ -6935,40 +6417,71 @@
         <v>145</v>
       </c>
       <c r="BG5" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
-        <v>7.0687499999999996</v>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
+        <v>7.8975</v>
       </c>
       <c r="BH5" s="34">
         <f>N("Average damage for the attack row")+((N("R: Repeated attack times (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Repeat Attack Times]]),DPRTacticsCalculator[[#This Row],[Repeat Attack Times]],1))*DPRTacticsCalculator[[#This Row],[Damage per Attack]])</f>
-        <v>14.137499999999999</v>
+        <v>15.795</v>
       </c>
       <c r="BI5" s="34">
         <f>N("Damage per target*NumTargets")+(DPRTacticsCalculator[[#This Row],[Average Resulting Damage per Target]]*(N("AOE: Area of Effect targets (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]]),DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]],1)))</f>
-        <v>14.137499999999999</v>
+        <v>15.795</v>
       </c>
       <c r="BJ5" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this round")+N("Sum the attacks with the same tactic AND round number")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])),"-")</f>
-        <v>14.137499999999999</v>
+        <v>15.795</v>
       </c>
       <c r="BK5" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Round Damage per Target]]),(DPRTacticsCalculator[[#This Row],[Average Round Damage per Target]]*(N("AOE: Area of Effect targets (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]]),DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]],1))),"-")</f>
-        <v>14.137499999999999</v>
+        <v>15.795</v>
       </c>
       <c r="BL5" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this tactic")+N("Sum the attacks with the same tactic ID")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])),"-")</f>
-        <v>24.787500000000001</v>
+        <v>27.295000000000002</v>
       </c>
       <c r="BM5" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this tactic")+N("Sum the attacks with the same tactic ID")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage Total]:[Average Resulting Damage Total]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])),"-")</f>
-        <v>24.787500000000001</v>
+        <v>27.295000000000002</v>
       </c>
       <c r="BN5" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage per Target]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage per Target]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
-        <v>12.393750000000001</v>
+        <v>13.647500000000001</v>
       </c>
       <c r="BO5" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
-        <v>12.393750000000001</v>
+        <v>13.647500000000001</v>
       </c>
       <c r="BP5" s="35">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
@@ -7209,16 +6722,47 @@
         <v>145</v>
       </c>
       <c r="BG6" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
-        <v>8.6482500000000009</v>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
+        <v>9.6525000000000016</v>
       </c>
       <c r="BH6" s="34">
         <f>N("Average damage for the attack row")+((N("R: Repeated attack times (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Repeat Attack Times]]),DPRTacticsCalculator[[#This Row],[Repeat Attack Times]],1))*DPRTacticsCalculator[[#This Row],[Damage per Attack]])</f>
-        <v>17.296500000000002</v>
+        <v>19.305000000000003</v>
       </c>
       <c r="BI6" s="34">
         <f>N("Damage per target*NumTargets")+(DPRTacticsCalculator[[#This Row],[Average Resulting Damage per Target]]*(N("AOE: Area of Effect targets (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]]),DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]],1)))</f>
-        <v>17.296500000000002</v>
+        <v>19.305000000000003</v>
       </c>
       <c r="BJ6" s="34" t="str">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this round")+N("Sum the attacks with the same tactic AND round number")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])),"-")</f>
@@ -7483,44 +7027,75 @@
         <v>145</v>
       </c>
       <c r="BG7" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
-        <v>5.7525000000000004</v>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
+        <v>6.4350000000000005</v>
       </c>
       <c r="BH7" s="34">
         <f>N("Average damage for the attack row")+((N("R: Repeated attack times (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Repeat Attack Times]]),DPRTacticsCalculator[[#This Row],[Repeat Attack Times]],1))*DPRTacticsCalculator[[#This Row],[Damage per Attack]])</f>
-        <v>5.7525000000000004</v>
+        <v>6.4350000000000005</v>
       </c>
       <c r="BI7" s="34">
         <f>N("Damage per target*NumTargets")+(DPRTacticsCalculator[[#This Row],[Average Resulting Damage per Target]]*(N("AOE: Area of Effect targets (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]]),DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]],1)))</f>
-        <v>5.7525000000000004</v>
+        <v>6.4350000000000005</v>
       </c>
       <c r="BJ7" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this round")+N("Sum the attacks with the same tactic AND round number")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])),"-")</f>
-        <v>23.049000000000003</v>
+        <v>25.740000000000002</v>
       </c>
       <c r="BK7" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Round Damage per Target]]),(DPRTacticsCalculator[[#This Row],[Average Round Damage per Target]]*(N("AOE: Area of Effect targets (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]]),DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]],1))),"-")</f>
-        <v>23.049000000000003</v>
+        <v>25.740000000000002</v>
       </c>
       <c r="BL7" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this tactic")+N("Sum the attacks with the same tactic ID")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])),"-")</f>
-        <v>23.049000000000003</v>
+        <v>25.740000000000002</v>
       </c>
       <c r="BM7" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this tactic")+N("Sum the attacks with the same tactic ID")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage Total]:[Average Resulting Damage Total]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])),"-")</f>
-        <v>23.049000000000003</v>
+        <v>25.740000000000002</v>
       </c>
       <c r="BN7" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage per Target]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage per Target]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
-        <v>23.049000000000003</v>
+        <v>25.740000000000002</v>
       </c>
       <c r="BO7" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
-        <v>23.049000000000003</v>
+        <v>25.740000000000002</v>
       </c>
       <c r="BP7" s="35">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BQ7" s="24" t="str" cm="1">
         <f t="array" ref="BQ7">_xlfn.IFS(
@@ -7532,11 +7107,11 @@
     DPRTacticsCalculator[[#This Row],[DPR per Target Rating]]=4,"★★★★  High (heavy hitter)",
     DPRTacticsCalculator[[#This Row],[DPR per Target Rating]]=5,"🕱🕱🕱🕱🕱  Deadly"
 )</f>
-        <v>★★★☆  Target (expected)</v>
+        <v>★★★★  High (heavy hitter)</v>
       </c>
       <c r="BR7" s="33">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS7" s="24" t="str" cm="1">
         <f t="array" ref="BS7">_xlfn.IFS(
@@ -7548,7 +7123,7 @@
     DPRTacticsCalculator[[#This Row],[Total DPR Rating]]=4,"★★★★  High (heavy hitter)",
     DPRTacticsCalculator[[#This Row],[Total DPR Rating]]=5,"🕱🕱🕱🕱🕱  Deadly"
 )</f>
-        <v>★★★☆  Target (expected)</v>
+        <v>★★★★  High (heavy hitter)</v>
       </c>
       <c r="BT7" s="36" t="s">
         <v>77</v>
@@ -7757,7 +7332,38 @@
         <v>205</v>
       </c>
       <c r="BG8" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
         <v>29.75</v>
       </c>
       <c r="BH8" s="34">
@@ -8031,7 +7637,38 @@
         <v>205</v>
       </c>
       <c r="BG9" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
         <v>31.166666666666664</v>
       </c>
       <c r="BH9" s="34">
@@ -8305,7 +7942,38 @@
         <v>205</v>
       </c>
       <c r="BG10" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
         <v>33.424999999999997</v>
       </c>
       <c r="BH10" s="34">
@@ -8579,7 +8247,38 @@
         <v>145</v>
       </c>
       <c r="BG11" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
         <v>8.4500000000000011</v>
       </c>
       <c r="BH11" s="34">
@@ -8853,7 +8552,38 @@
         <v>145</v>
       </c>
       <c r="BG12" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
         <v>0</v>
       </c>
       <c r="BH12" s="34">
@@ -9127,7 +8857,38 @@
         <v>145</v>
       </c>
       <c r="BG13" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
         <v>11.407500000000001</v>
       </c>
       <c r="BH13" s="34">
@@ -9401,7 +9162,38 @@
         <v>145</v>
       </c>
       <c r="BG14" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
         <v>11.407500000000001</v>
       </c>
       <c r="BH14" s="34">
@@ -9675,7 +9467,38 @@
         <v>145</v>
       </c>
       <c r="BG15" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
         <v>11.407500000000001</v>
       </c>
       <c r="BH15" s="34">
@@ -9949,7 +9772,38 @@
         <v>205</v>
       </c>
       <c r="BG16" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
         <v>15.75</v>
       </c>
       <c r="BH16" s="34">
@@ -10223,7 +10077,38 @@
         <v>205</v>
       </c>
       <c r="BG17" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
         <v>15.75</v>
       </c>
       <c r="BH17" s="34">
@@ -10497,7 +10382,38 @@
         <v>205</v>
       </c>
       <c r="BG18" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
         <v>15.75</v>
       </c>
       <c r="BH18" s="34">
@@ -10771,7 +10687,38 @@
         <v>205</v>
       </c>
       <c r="BG19" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
         <v>29.75</v>
       </c>
       <c r="BH19" s="34">
@@ -11045,24 +10992,55 @@
         <v>205</v>
       </c>
       <c r="BG20" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
-        <v>4.8999999999999995</v>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
+        <v>5.25</v>
       </c>
       <c r="BH20" s="34">
         <f>N("Average damage for the attack row")+((N("R: Repeated attack times (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Repeat Attack Times]]),DPRTacticsCalculator[[#This Row],[Repeat Attack Times]],1))*DPRTacticsCalculator[[#This Row],[Damage per Attack]])</f>
-        <v>19.599999999999998</v>
+        <v>21</v>
       </c>
       <c r="BI20" s="34">
         <f>N("Damage per target*NumTargets")+(DPRTacticsCalculator[[#This Row],[Average Resulting Damage per Target]]*(N("AOE: Area of Effect targets (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]]),DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]],1)))</f>
-        <v>78.399999999999991</v>
+        <v>84</v>
       </c>
       <c r="BJ20" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this round")+N("Sum the attacks with the same tactic AND round number")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])),"-")</f>
-        <v>19.599999999999998</v>
+        <v>21</v>
       </c>
       <c r="BK20" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Round Damage per Target]]),(DPRTacticsCalculator[[#This Row],[Average Round Damage per Target]]*(N("AOE: Area of Effect targets (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]]),DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]],1))),"-")</f>
-        <v>78.399999999999991</v>
+        <v>84</v>
       </c>
       <c r="BL20" s="34" t="str">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this tactic")+N("Sum the attacks with the same tactic ID")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])),"-")</f>
@@ -11314,7 +11292,38 @@
         <v>205</v>
       </c>
       <c r="BG21" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
         <v>26.774999999999999</v>
       </c>
       <c r="BH21" s="34">
@@ -11335,19 +11344,19 @@
       </c>
       <c r="BL21" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this tactic")+N("Sum the attacks with the same tactic ID")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])),"-")</f>
-        <v>123.375</v>
+        <v>124.77500000000001</v>
       </c>
       <c r="BM21" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this tactic")+N("Sum the attacks with the same tactic ID")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage Total]:[Average Resulting Damage Total]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])),"-")</f>
-        <v>493.5</v>
+        <v>499.1</v>
       </c>
       <c r="BN21" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage per Target]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage per Target]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
-        <v>20.5625</v>
+        <v>20.795833333333334</v>
       </c>
       <c r="BO21" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
-        <v>82.25</v>
+        <v>83.183333333333337</v>
       </c>
       <c r="BP21" s="35">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
@@ -11583,16 +11592,47 @@
         <v>145</v>
       </c>
       <c r="BG22" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
-        <v>10.432500000000001</v>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
+        <v>11.635000000000002</v>
       </c>
       <c r="BH22" s="34">
         <f>N("Average damage for the attack row")+((N("R: Repeated attack times (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Repeat Attack Times]]),DPRTacticsCalculator[[#This Row],[Repeat Attack Times]],1))*DPRTacticsCalculator[[#This Row],[Damage per Attack]])</f>
-        <v>20.865000000000002</v>
+        <v>23.270000000000003</v>
       </c>
       <c r="BI22" s="34">
         <f>N("Damage per target*NumTargets")+(DPRTacticsCalculator[[#This Row],[Average Resulting Damage per Target]]*(N("AOE: Area of Effect targets (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]]),DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]],1)))</f>
-        <v>20.865000000000002</v>
+        <v>23.270000000000003</v>
       </c>
       <c r="BJ22" s="34" t="str">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this round")+N("Sum the attacks with the same tactic AND round number")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])),"-")</f>
@@ -11852,44 +11892,75 @@
         <v>145</v>
       </c>
       <c r="BG23" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
-        <v>1.0171687500000004</v>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
+        <v>1.1344125000000005</v>
       </c>
       <c r="BH23" s="34">
         <f>N("Average damage for the attack row")+((N("R: Repeated attack times (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Repeat Attack Times]]),DPRTacticsCalculator[[#This Row],[Repeat Attack Times]],1))*DPRTacticsCalculator[[#This Row],[Damage per Attack]])</f>
-        <v>1.0171687500000004</v>
+        <v>1.1344125000000005</v>
       </c>
       <c r="BI23" s="34">
         <f>N("Damage per target*NumTargets")+(DPRTacticsCalculator[[#This Row],[Average Resulting Damage per Target]]*(N("AOE: Area of Effect targets (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]]),DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]],1)))</f>
-        <v>1.0171687500000004</v>
+        <v>1.1344125000000005</v>
       </c>
       <c r="BJ23" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this round")+N("Sum the attacks with the same tactic AND round number")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])),"-")</f>
-        <v>21.882168750000002</v>
+        <v>24.404412500000003</v>
       </c>
       <c r="BK23" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Round Damage per Target]]),(DPRTacticsCalculator[[#This Row],[Average Round Damage per Target]]*(N("AOE: Area of Effect targets (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]]),DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]],1))),"-")</f>
-        <v>21.882168750000002</v>
+        <v>24.404412500000003</v>
       </c>
       <c r="BL23" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this tactic")+N("Sum the attacks with the same tactic ID")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])),"-")</f>
-        <v>21.882168750000002</v>
+        <v>24.404412500000003</v>
       </c>
       <c r="BM23" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this tactic")+N("Sum the attacks with the same tactic ID")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage Total]:[Average Resulting Damage Total]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])),"-")</f>
-        <v>21.882168750000002</v>
+        <v>24.404412500000003</v>
       </c>
       <c r="BN23" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage per Target]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage per Target]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
-        <v>21.882168750000002</v>
+        <v>24.404412500000003</v>
       </c>
       <c r="BO23" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
-        <v>21.882168750000002</v>
+        <v>24.404412500000003</v>
       </c>
       <c r="BP23" s="35">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BQ23" s="24" t="str" cm="1">
         <f t="array" ref="BQ23">_xlfn.IFS(
@@ -11901,11 +11972,11 @@
     DPRTacticsCalculator[[#This Row],[DPR per Target Rating]]=4,"★★★★  High (heavy hitter)",
     DPRTacticsCalculator[[#This Row],[DPR per Target Rating]]=5,"🕱🕱🕱🕱🕱  Deadly"
 )</f>
-        <v>★★★☆  Target (expected)</v>
+        <v>★★★★  High (heavy hitter)</v>
       </c>
       <c r="BR23" s="33">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS23" s="24" t="str" cm="1">
         <f t="array" ref="BS23">_xlfn.IFS(
@@ -11917,7 +11988,7 @@
     DPRTacticsCalculator[[#This Row],[Total DPR Rating]]=4,"★★★★  High (heavy hitter)",
     DPRTacticsCalculator[[#This Row],[Total DPR Rating]]=5,"🕱🕱🕱🕱🕱  Deadly"
 )</f>
-        <v>★★★☆  Target (expected)</v>
+        <v>★★★★  High (heavy hitter)</v>
       </c>
       <c r="BT23" s="36" t="s">
         <v>77</v>
@@ -12121,16 +12192,47 @@
         <v>145</v>
       </c>
       <c r="BG24" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
-        <v>12.928333333333335</v>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
+        <v>15.105833333333335</v>
       </c>
       <c r="BH24" s="34">
         <f>N("Average damage for the attack row")+((N("R: Repeated attack times (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Repeat Attack Times]]),DPRTacticsCalculator[[#This Row],[Repeat Attack Times]],1))*DPRTacticsCalculator[[#This Row],[Damage per Attack]])</f>
-        <v>25.856666666666669</v>
+        <v>30.21166666666667</v>
       </c>
       <c r="BI24" s="34">
         <f>N("Damage per target*NumTargets")+(DPRTacticsCalculator[[#This Row],[Average Resulting Damage per Target]]*(N("AOE: Area of Effect targets (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]]),DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]],1)))</f>
-        <v>25.856666666666669</v>
+        <v>30.21166666666667</v>
       </c>
       <c r="BJ24" s="34" t="str">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this round")+N("Sum the attacks with the same tactic AND round number")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])),"-")</f>
@@ -12390,40 +12492,71 @@
         <v>145</v>
       </c>
       <c r="BG25" s="34">
-        <f>N("Damage per Attack per Target")+((DPRTacticsCalculator[[#This Row],[Crit % Chance]]*DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]])+((N("Hx: Hit chance (excluding crit)")+DPRTacticsCalculator[[#This Row],[Non-crit Hit % Chance]])*((N("D: Average damage on hit")+DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])+(N("B: Bonus modifiers")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))+(N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))))+((N("M: Miss chance (for spell saves)")+DPRTacticsCalculator[[#This Row],[Miss % Chance]])*(N("Dm: Average damage on miss (only for spell saves)")+DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])))</f>
-        <v>1.2605125000000004</v>
+        <f>N("Damage per Attack per Target")+
+(
+    (
+        DPRTacticsCalculator[[#This Row],[Crit % Chance]]
+        *
+        DPRTacticsCalculator[[#This Row],[Average Damage Added on Crit]]
+    )
+    +
+    (
+        (N("H: Hit chance (including crit)")+
+        DPRTacticsCalculator[[#This Row],[Hit % Chance]])
+        *
+        (
+            (N("D: Average damage on hit")+
+            DPRTacticsCalculator[[#This Row],[Average Dice Damage on Hit]])
+            +
+            (N("B: Bonus modifiers")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]]),DPRTacticsCalculator[[#This Row],[Bonus Flat Dmg]],0))
+            +
+            (N("GWMb: Great Weapon Master -5 to hit for +10 dmg option")+
+            IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]]),DPRTacticsCalculator[[#This Row],[Great Weapon Master Bonus Dmg]],0))
+        )
+    )
+    +
+    (
+        (N("M: Miss chance (for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Miss % Chance]])
+        *
+        (N("Dm: Average damage on miss (only for spell saves)")+
+        DPRTacticsCalculator[[#This Row],[Average Damage on Miss]])
+    )
+)</f>
+        <v>1.4728187500000007</v>
       </c>
       <c r="BH25" s="34">
         <f>N("Average damage for the attack row")+((N("R: Repeated attack times (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Repeat Attack Times]]),DPRTacticsCalculator[[#This Row],[Repeat Attack Times]],1))*DPRTacticsCalculator[[#This Row],[Damage per Attack]])</f>
-        <v>1.2605125000000004</v>
+        <v>1.4728187500000007</v>
       </c>
       <c r="BI25" s="34">
         <f>N("Damage per target*NumTargets")+(DPRTacticsCalculator[[#This Row],[Average Resulting Damage per Target]]*(N("AOE: Area of Effect targets (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]]),DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]],1)))</f>
-        <v>1.2605125000000004</v>
+        <v>1.4728187500000007</v>
       </c>
       <c r="BJ25" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this round")+N("Sum the attacks with the same tactic AND round number")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]],DPRTacticsCalculator[[Round]:[Round]],DPRTacticsCalculator[[#This Row],[Round]])),"-")</f>
-        <v>27.11717916666667</v>
+        <v>31.684485416666671</v>
       </c>
       <c r="BK25" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Round Damage per Target]]),(DPRTacticsCalculator[[#This Row],[Average Round Damage per Target]]*(N("AOE: Area of Effect targets (must have the same bonuses applied)")+IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]]),DPRTacticsCalculator[[#This Row],[Area of Effect Expected Targets]],1))),"-")</f>
-        <v>27.11717916666667</v>
+        <v>31.684485416666671</v>
       </c>
       <c r="BL25" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this tactic")+N("Sum the attacks with the same tactic ID")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage per Target]:[Average Resulting Damage per Target]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])),"-")</f>
-        <v>27.11717916666667</v>
+        <v>31.684485416666671</v>
       </c>
       <c r="BM25" s="34">
         <f>IF(_xlfn.MAXIFS(DPRTacticsCalculator[[Row]:[Row]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])=DPRTacticsCalculator[[#This Row],[Row]],(N("Leave blank if not the last on the list for this tactic")+N("Sum the attacks with the same tactic ID")+SUMIFS(DPRTacticsCalculator[[Average Resulting Damage Total]:[Average Resulting Damage Total]],DPRTacticsCalculator[[Tactic ID]:[Tactic ID]],DPRTacticsCalculator[[#This Row],[Tactic ID]])),"-")</f>
-        <v>27.11717916666667</v>
+        <v>31.684485416666671</v>
       </c>
       <c r="BN25" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage per Target]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage per Target]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
-        <v>27.11717916666667</v>
+        <v>31.684485416666671</v>
       </c>
       <c r="BO25" s="34">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
-        <v>27.11717916666667</v>
+        <v>31.684485416666671</v>
       </c>
       <c r="BP25" s="35">
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
@@ -12517,26 +12650,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:O36"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="46.44140625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="16"/>
-    <col min="3" max="5" width="16.88671875" style="16"/>
-    <col min="6" max="13" width="16.88671875"/>
+    <col min="2" max="2" width="8.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="34.21875" customWidth="1"/>
     <col min="16" max="16" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1">
-      <c r="A1" t="s">
+      <c r="A1" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="C1"/>
       <c r="D1" s="17"/>
@@ -12562,50 +12704,50 @@
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
         <v>137</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>138</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>139</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>140</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>141</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>142</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>143</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>144</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>145</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>146</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="P3" s="20" t="s">
         <v>148</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -12614,41 +12756,44 @@
       </c>
       <c r="B4"/>
       <c r="C4" s="19">
-        <v>5.7248343750000004</v>
+        <v>6.3847062500000007</v>
       </c>
       <c r="D4" s="19">
-        <v>10.941084375000001</v>
+        <v>12.202206250000001</v>
       </c>
       <c r="E4" s="19">
-        <v>10.941084375000001</v>
+        <v>12.202206250000001</v>
       </c>
       <c r="F4" s="19">
-        <v>21.882168750000002</v>
+        <v>24.404412500000003</v>
       </c>
       <c r="G4" s="19">
-        <v>21.882168750000002</v>
+        <v>24.404412500000003</v>
       </c>
       <c r="H4" s="19">
-        <v>21.882168750000002</v>
+        <v>24.404412500000003</v>
       </c>
       <c r="I4" s="19">
-        <v>21.882168750000002</v>
+        <v>24.404412500000003</v>
       </c>
       <c r="J4" s="19">
-        <v>21.882168750000002</v>
+        <v>24.404412500000003</v>
       </c>
       <c r="K4" s="19">
-        <v>21.882168750000002</v>
+        <v>24.404412500000003</v>
       </c>
       <c r="L4" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" s="8" t="str" cm="1">
         <f t="array" ref="O4">IF(
-    ISBLANK(L4)=FALSE,
+    AND(
+        ISBLANK(L4)=FALSE,
+        ISNUMBER($B4)=FALSE
+    ),
     _xlfn.IFS(
         L4=0,
             "☆☆☆☆  No damage",
@@ -12666,11 +12811,32 @@
     ),
     ""
 )</f>
-        <v>★★★☆  Target (expected)</v>
-      </c>
-      <c r="P4" s="8" t="str">
-        <f t="shared" ref="P4:P36" si="0">IF(ISBLANK(M4)=FALSE,_xlfn.IFS(M4=0,"☆☆☆  No damage",AND(M4&gt;0,M4&lt;2),"🡇🡇🡇  Lowest (not helping)",AND(M4&gt;=2,M4&lt;3),"★☆☆  Low (support, control, debuff)",AND(M4&gt;=3,M4&lt;4),"★★☆  Target (expected)",AND(M4&gt;=4,M4&lt;5),"★★★  High (heavy hitter)",M4=5,"🕱🕱🕱🕱  Deadly",1,"-"),"")</f>
-        <v>★★☆  Target (expected)</v>
+        <v>★★★★  High (heavy hitter)</v>
+      </c>
+      <c r="P4" s="8" t="str" cm="1">
+        <f t="array" ref="P4">IF(
+    AND(
+        ISBLANK(M4)=FALSE,
+        ISNUMBER($B4)=FALSE
+    ),
+    _xlfn.IFS(
+        M4=0,
+            "☆☆☆☆  No damage",
+        AND(M4&gt;0,M4&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M4&gt;=2,M4&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M4&gt;=3,M4&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M4&gt;=4,M4&lt;5),
+            "★★★★  High (heavy hitter)",
+        M4=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v>★★★★  High (heavy hitter)</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -12679,41 +12845,44 @@
         <v>1</v>
       </c>
       <c r="C5" s="19">
-        <v>5.7248343750000004</v>
+        <v>6.3847062500000007</v>
       </c>
       <c r="D5" s="19">
-        <v>10.941084375000001</v>
+        <v>12.202206250000001</v>
       </c>
       <c r="E5" s="19">
-        <v>10.941084375000001</v>
+        <v>12.202206250000001</v>
       </c>
       <c r="F5" s="19">
-        <v>21.882168750000002</v>
+        <v>24.404412500000003</v>
       </c>
       <c r="G5" s="19">
-        <v>21.882168750000002</v>
+        <v>24.404412500000003</v>
       </c>
       <c r="H5" s="19">
-        <v>21.882168750000002</v>
+        <v>24.404412500000003</v>
       </c>
       <c r="I5" s="19">
-        <v>21.882168750000002</v>
+        <v>24.404412500000003</v>
       </c>
       <c r="J5" s="19">
-        <v>21.882168750000002</v>
+        <v>24.404412500000003</v>
       </c>
       <c r="K5" s="19">
-        <v>21.882168750000002</v>
+        <v>24.404412500000003</v>
       </c>
       <c r="L5" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" s="8" t="str" cm="1">
         <f t="array" ref="O5">IF(
-    ISBLANK(L5)=FALSE,
+    AND(
+        ISBLANK(L5)=FALSE,
+        ISNUMBER($B5)=FALSE
+    ),
     _xlfn.IFS(
         L5=0,
             "☆☆☆☆  No damage",
@@ -12731,11 +12900,32 @@
     ),
     ""
 )</f>
-        <v>★★★☆  Target (expected)</v>
-      </c>
-      <c r="P5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>★★☆  Target (expected)</v>
+        <v/>
+      </c>
+      <c r="P5" s="8" t="str" cm="1">
+        <f t="array" ref="P5">IF(
+    AND(
+        ISBLANK(M5)=FALSE,
+        ISNUMBER($B5)=FALSE
+    ),
+    _xlfn.IFS(
+        M5=0,
+            "☆☆☆☆  No damage",
+        AND(M5&gt;0,M5&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M5&gt;=2,M5&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M5&gt;=3,M5&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M5&gt;=4,M5&lt;5),
+            "★★★★  High (heavy hitter)",
+        M5=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -12744,31 +12934,31 @@
       </c>
       <c r="B6"/>
       <c r="C6" s="19">
-        <v>7.0944229166666499</v>
+        <v>8.2893260416666674</v>
       </c>
       <c r="D6" s="19">
-        <v>13.558589583333401</v>
+        <v>15.842242708333336</v>
       </c>
       <c r="E6" s="19">
-        <v>13.558589583333401</v>
+        <v>15.842242708333336</v>
       </c>
       <c r="F6" s="19">
-        <v>27.117179166666698</v>
+        <v>31.684485416666671</v>
       </c>
       <c r="G6" s="19">
-        <v>27.117179166666698</v>
+        <v>31.684485416666671</v>
       </c>
       <c r="H6" s="19">
-        <v>27.117179166666698</v>
+        <v>31.684485416666671</v>
       </c>
       <c r="I6" s="19">
-        <v>27.117179166666698</v>
+        <v>31.684485416666671</v>
       </c>
       <c r="J6" s="19">
-        <v>27.117179166666698</v>
+        <v>31.684485416666671</v>
       </c>
       <c r="K6" s="19">
-        <v>27.117179166666698</v>
+        <v>31.684485416666671</v>
       </c>
       <c r="L6" s="19">
         <v>4</v>
@@ -12778,7 +12968,10 @@
       </c>
       <c r="O6" s="8" t="str" cm="1">
         <f t="array" ref="O6">IF(
-    ISBLANK(L6)=FALSE,
+    AND(
+        ISBLANK(L6)=FALSE,
+        ISNUMBER($B6)=FALSE
+    ),
     _xlfn.IFS(
         L6=0,
             "☆☆☆☆  No damage",
@@ -12798,9 +12991,30 @@
 )</f>
         <v>★★★★  High (heavy hitter)</v>
       </c>
-      <c r="P6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>★★★  High (heavy hitter)</v>
+      <c r="P6" s="8" t="str" cm="1">
+        <f t="array" ref="P6">IF(
+    AND(
+        ISBLANK(M6)=FALSE,
+        ISNUMBER($B6)=FALSE
+    ),
+    _xlfn.IFS(
+        M6=0,
+            "☆☆☆☆  No damage",
+        AND(M6&gt;0,M6&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M6&gt;=2,M6&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M6&gt;=3,M6&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M6&gt;=4,M6&lt;5),
+            "★★★★  High (heavy hitter)",
+        M6=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v>★★★★  High (heavy hitter)</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -12809,31 +13023,31 @@
         <v>1</v>
       </c>
       <c r="C7" s="19">
-        <v>7.0944229166666499</v>
+        <v>8.2893260416666674</v>
       </c>
       <c r="D7" s="19">
-        <v>13.558589583333401</v>
+        <v>15.842242708333336</v>
       </c>
       <c r="E7" s="19">
-        <v>13.558589583333401</v>
+        <v>15.842242708333336</v>
       </c>
       <c r="F7" s="19">
-        <v>27.117179166666698</v>
+        <v>31.684485416666671</v>
       </c>
       <c r="G7" s="19">
-        <v>27.117179166666698</v>
+        <v>31.684485416666671</v>
       </c>
       <c r="H7" s="19">
-        <v>27.117179166666698</v>
+        <v>31.684485416666671</v>
       </c>
       <c r="I7" s="19">
-        <v>27.117179166666698</v>
+        <v>31.684485416666671</v>
       </c>
       <c r="J7" s="19">
-        <v>27.117179166666698</v>
+        <v>31.684485416666671</v>
       </c>
       <c r="K7" s="19">
-        <v>27.117179166666698</v>
+        <v>31.684485416666671</v>
       </c>
       <c r="L7" s="19">
         <v>4</v>
@@ -12843,7 +13057,10 @@
       </c>
       <c r="O7" s="8" t="str" cm="1">
         <f t="array" ref="O7">IF(
-    ISBLANK(L7)=FALSE,
+    AND(
+        ISBLANK(L7)=FALSE,
+        ISNUMBER($B7)=FALSE
+    ),
     _xlfn.IFS(
         L7=0,
             "☆☆☆☆  No damage",
@@ -12861,11 +13078,32 @@
     ),
     ""
 )</f>
-        <v>★★★★  High (heavy hitter)</v>
-      </c>
-      <c r="P7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>★★★  High (heavy hitter)</v>
+        <v/>
+      </c>
+      <c r="P7" s="8" t="str" cm="1">
+        <f t="array" ref="P7">IF(
+    AND(
+        ISBLANK(M7)=FALSE,
+        ISNUMBER($B7)=FALSE
+    ),
+    _xlfn.IFS(
+        M7=0,
+            "☆☆☆☆  No damage",
+        AND(M7&gt;0,M7&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M7&gt;=2,M7&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M7&gt;=3,M7&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M7&gt;=4,M7&lt;5),
+            "★★★★  High (heavy hitter)",
+        M7=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -12874,31 +13112,31 @@
       </c>
       <c r="B8"/>
       <c r="C8" s="19">
-        <v>5.7093749999999996</v>
+        <v>6.3112500000000002</v>
       </c>
       <c r="D8" s="19">
-        <v>9.2437500000000004</v>
+        <v>10.26</v>
       </c>
       <c r="E8" s="19">
-        <v>9.2437500000000004</v>
+        <v>10.26</v>
       </c>
       <c r="F8" s="19">
-        <v>9.2437500000000004</v>
+        <v>10.26</v>
       </c>
       <c r="G8" s="19">
-        <v>9.2437500000000004</v>
+        <v>10.26</v>
       </c>
       <c r="H8" s="19">
-        <v>18.487500000000001</v>
+        <v>20.52</v>
       </c>
       <c r="I8" s="19">
-        <v>18.487500000000001</v>
+        <v>20.52</v>
       </c>
       <c r="J8" s="19">
-        <v>9.2437500000000004</v>
+        <v>10.26</v>
       </c>
       <c r="K8" s="19">
-        <v>9.2437500000000004</v>
+        <v>10.26</v>
       </c>
       <c r="L8" s="19">
         <v>2</v>
@@ -12908,7 +13146,10 @@
       </c>
       <c r="O8" s="8" t="str" cm="1">
         <f t="array" ref="O8">IF(
-    ISBLANK(L8)=FALSE,
+    AND(
+        ISBLANK(L8)=FALSE,
+        ISNUMBER($B8)=FALSE
+    ),
     _xlfn.IFS(
         L8=0,
             "☆☆☆☆  No damage",
@@ -12928,9 +13169,30 @@
 )</f>
         <v>★★☆☆  Low (support, control, debuff)</v>
       </c>
-      <c r="P8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>★☆☆  Low (support, control, debuff)</v>
+      <c r="P8" s="8" t="str" cm="1">
+        <f t="array" ref="P8">IF(
+    AND(
+        ISBLANK(M8)=FALSE,
+        ISNUMBER($B8)=FALSE
+    ),
+    _xlfn.IFS(
+        M8=0,
+            "☆☆☆☆  No damage",
+        AND(M8&gt;0,M8&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M8&gt;=2,M8&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M8&gt;=3,M8&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M8&gt;=4,M8&lt;5),
+            "★★★★  High (heavy hitter)",
+        M8=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v>★★☆☆  Low (support, control, debuff)</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -12939,41 +13201,44 @@
         <v>1</v>
       </c>
       <c r="C9" s="19">
-        <v>4.3499999999999996</v>
+        <v>4.7250000000000005</v>
       </c>
       <c r="D9" s="19">
-        <v>4.3499999999999996</v>
+        <v>4.7250000000000005</v>
       </c>
       <c r="E9" s="19">
-        <v>4.3499999999999996</v>
+        <v>4.7250000000000005</v>
       </c>
       <c r="F9" s="19">
-        <v>4.3499999999999996</v>
+        <v>4.7250000000000005</v>
       </c>
       <c r="G9" s="19">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>77</v>
+        <v>4.7250000000000005</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0</v>
+      </c>
+      <c r="M9" s="19">
+        <v>0</v>
       </c>
       <c r="O9" s="8" t="str" cm="1">
         <f t="array" ref="O9">IF(
-    ISBLANK(L9)=FALSE,
+    AND(
+        ISBLANK(L9)=FALSE,
+        ISNUMBER($B9)=FALSE
+    ),
     _xlfn.IFS(
         L9=0,
             "☆☆☆☆  No damage",
@@ -12991,11 +13256,32 @@
     ),
     ""
 )</f>
-        <v>-</v>
-      </c>
-      <c r="P9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v/>
+      </c>
+      <c r="P9" s="8" t="str" cm="1">
+        <f t="array" ref="P9">IF(
+    AND(
+        ISBLANK(M9)=FALSE,
+        ISNUMBER($B9)=FALSE
+    ),
+    _xlfn.IFS(
+        M9=0,
+            "☆☆☆☆  No damage",
+        AND(M9&gt;0,M9&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M9&gt;=2,M9&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M9&gt;=3,M9&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M9&gt;=4,M9&lt;5),
+            "★★★★  High (heavy hitter)",
+        M9=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -13004,31 +13290,31 @@
         <v>2</v>
       </c>
       <c r="C10" s="19">
-        <v>7.0687499999999996</v>
+        <v>7.8975</v>
       </c>
       <c r="D10" s="19">
-        <v>14.137499999999999</v>
+        <v>15.795</v>
       </c>
       <c r="E10" s="19">
-        <v>14.137499999999999</v>
+        <v>15.795</v>
       </c>
       <c r="F10" s="19">
-        <v>14.137499999999999</v>
+        <v>15.795</v>
       </c>
       <c r="G10" s="19">
-        <v>14.137499999999999</v>
+        <v>15.795</v>
       </c>
       <c r="H10" s="19">
-        <v>18.487500000000001</v>
+        <v>20.52</v>
       </c>
       <c r="I10" s="19">
-        <v>18.487500000000001</v>
+        <v>20.52</v>
       </c>
       <c r="J10" s="19">
-        <v>9.2437500000000004</v>
+        <v>10.26</v>
       </c>
       <c r="K10" s="19">
-        <v>9.2437500000000004</v>
+        <v>10.26</v>
       </c>
       <c r="L10" s="19">
         <v>2</v>
@@ -13038,7 +13324,10 @@
       </c>
       <c r="O10" s="8" t="str" cm="1">
         <f t="array" ref="O10">IF(
-    ISBLANK(L10)=FALSE,
+    AND(
+        ISBLANK(L10)=FALSE,
+        ISNUMBER($B10)=FALSE
+    ),
     _xlfn.IFS(
         L10=0,
             "☆☆☆☆  No damage",
@@ -13056,11 +13345,32 @@
     ),
     ""
 )</f>
-        <v>★★☆☆  Low (support, control, debuff)</v>
-      </c>
-      <c r="P10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>★☆☆  Low (support, control, debuff)</v>
+        <v/>
+      </c>
+      <c r="P10" s="8" t="str" cm="1">
+        <f t="array" ref="P10">IF(
+    AND(
+        ISBLANK(M10)=FALSE,
+        ISNUMBER($B10)=FALSE
+    ),
+    _xlfn.IFS(
+        M10=0,
+            "☆☆☆☆  No damage",
+        AND(M10&gt;0,M10&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M10&gt;=2,M10&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M10&gt;=3,M10&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M10&gt;=4,M10&lt;5),
+            "★★★★  High (heavy hitter)",
+        M10=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -13069,31 +13379,31 @@
       </c>
       <c r="B11"/>
       <c r="C11" s="19">
-        <v>6.1968750000000004</v>
+        <v>6.8237500000000004</v>
       </c>
       <c r="D11" s="19">
-        <v>12.393750000000001</v>
+        <v>13.647500000000001</v>
       </c>
       <c r="E11" s="19">
-        <v>12.393750000000001</v>
+        <v>13.647500000000001</v>
       </c>
       <c r="F11" s="19">
-        <v>12.393750000000001</v>
+        <v>13.647500000000001</v>
       </c>
       <c r="G11" s="19">
-        <v>12.393750000000001</v>
+        <v>13.647500000000001</v>
       </c>
       <c r="H11" s="19">
-        <v>24.787500000000001</v>
+        <v>27.295000000000002</v>
       </c>
       <c r="I11" s="19">
-        <v>24.787500000000001</v>
+        <v>27.295000000000002</v>
       </c>
       <c r="J11" s="19">
-        <v>12.393750000000001</v>
+        <v>13.647500000000001</v>
       </c>
       <c r="K11" s="19">
-        <v>12.393750000000001</v>
+        <v>13.647500000000001</v>
       </c>
       <c r="L11" s="19">
         <v>3</v>
@@ -13103,7 +13413,10 @@
       </c>
       <c r="O11" s="8" t="str" cm="1">
         <f t="array" ref="O11">IF(
-    ISBLANK(L11)=FALSE,
+    AND(
+        ISBLANK(L11)=FALSE,
+        ISNUMBER($B11)=FALSE
+    ),
     _xlfn.IFS(
         L11=0,
             "☆☆☆☆  No damage",
@@ -13123,9 +13436,30 @@
 )</f>
         <v>★★★☆  Target (expected)</v>
       </c>
-      <c r="P11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>★★☆  Target (expected)</v>
+      <c r="P11" s="8" t="str" cm="1">
+        <f t="array" ref="P11">IF(
+    AND(
+        ISBLANK(M11)=FALSE,
+        ISNUMBER($B11)=FALSE
+    ),
+    _xlfn.IFS(
+        M11=0,
+            "☆☆☆☆  No damage",
+        AND(M11&gt;0,M11&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M11&gt;=2,M11&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M11&gt;=3,M11&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M11&gt;=4,M11&lt;5),
+            "★★★★  High (heavy hitter)",
+        M11=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v>★★★☆  Target (expected)</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -13134,41 +13468,44 @@
         <v>1</v>
       </c>
       <c r="C12" s="19">
-        <v>5.3250000000000002</v>
+        <v>5.7500000000000009</v>
       </c>
       <c r="D12" s="19">
-        <v>10.65</v>
+        <v>11.500000000000002</v>
       </c>
       <c r="E12" s="19">
-        <v>10.65</v>
+        <v>11.500000000000002</v>
       </c>
       <c r="F12" s="19">
-        <v>10.65</v>
+        <v>11.500000000000002</v>
       </c>
       <c r="G12" s="19">
-        <v>10.65</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>77</v>
+        <v>11.500000000000002</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0</v>
+      </c>
+      <c r="L12" s="19">
+        <v>0</v>
+      </c>
+      <c r="M12" s="19">
+        <v>0</v>
       </c>
       <c r="O12" s="8" t="str" cm="1">
         <f t="array" ref="O12">IF(
-    ISBLANK(L12)=FALSE,
+    AND(
+        ISBLANK(L12)=FALSE,
+        ISNUMBER($B12)=FALSE
+    ),
     _xlfn.IFS(
         L12=0,
             "☆☆☆☆  No damage",
@@ -13186,11 +13523,32 @@
     ),
     ""
 )</f>
-        <v>-</v>
-      </c>
-      <c r="P12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v/>
+      </c>
+      <c r="P12" s="8" t="str" cm="1">
+        <f t="array" ref="P12">IF(
+    AND(
+        ISBLANK(M12)=FALSE,
+        ISNUMBER($B12)=FALSE
+    ),
+    _xlfn.IFS(
+        M12=0,
+            "☆☆☆☆  No damage",
+        AND(M12&gt;0,M12&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M12&gt;=2,M12&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M12&gt;=3,M12&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M12&gt;=4,M12&lt;5),
+            "★★★★  High (heavy hitter)",
+        M12=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -13199,31 +13557,31 @@
         <v>2</v>
       </c>
       <c r="C13" s="19">
-        <v>7.0687499999999996</v>
+        <v>7.8975</v>
       </c>
       <c r="D13" s="19">
-        <v>14.137499999999999</v>
+        <v>15.795</v>
       </c>
       <c r="E13" s="19">
-        <v>14.137499999999999</v>
+        <v>15.795</v>
       </c>
       <c r="F13" s="19">
-        <v>14.137499999999999</v>
+        <v>15.795</v>
       </c>
       <c r="G13" s="19">
-        <v>14.137499999999999</v>
+        <v>15.795</v>
       </c>
       <c r="H13" s="19">
-        <v>24.787500000000001</v>
+        <v>27.295000000000002</v>
       </c>
       <c r="I13" s="19">
-        <v>24.787500000000001</v>
+        <v>27.295000000000002</v>
       </c>
       <c r="J13" s="19">
-        <v>12.393750000000001</v>
+        <v>13.647500000000001</v>
       </c>
       <c r="K13" s="19">
-        <v>12.393750000000001</v>
+        <v>13.647500000000001</v>
       </c>
       <c r="L13" s="19">
         <v>3</v>
@@ -13233,7 +13591,10 @@
       </c>
       <c r="O13" s="8" t="str" cm="1">
         <f t="array" ref="O13">IF(
-    ISBLANK(L13)=FALSE,
+    AND(
+        ISBLANK(L13)=FALSE,
+        ISNUMBER($B13)=FALSE
+    ),
     _xlfn.IFS(
         L13=0,
             "☆☆☆☆  No damage",
@@ -13251,11 +13612,32 @@
     ),
     ""
 )</f>
-        <v>★★★☆  Target (expected)</v>
-      </c>
-      <c r="P13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>★★☆  Target (expected)</v>
+        <v/>
+      </c>
+      <c r="P13" s="8" t="str" cm="1">
+        <f t="array" ref="P13">IF(
+    AND(
+        ISBLANK(M13)=FALSE,
+        ISNUMBER($B13)=FALSE
+    ),
+    _xlfn.IFS(
+        M13=0,
+            "☆☆☆☆  No damage",
+        AND(M13&gt;0,M13&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M13&gt;=2,M13&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M13&gt;=3,M13&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M13&gt;=4,M13&lt;5),
+            "★★★★  High (heavy hitter)",
+        M13=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -13264,41 +13646,44 @@
       </c>
       <c r="B14"/>
       <c r="C14" s="19">
-        <v>7.2003750000000002</v>
+        <v>8.0437500000000011</v>
       </c>
       <c r="D14" s="19">
-        <v>11.5245</v>
+        <v>12.870000000000001</v>
       </c>
       <c r="E14" s="19">
-        <v>11.5245</v>
+        <v>12.870000000000001</v>
       </c>
       <c r="F14" s="19">
-        <v>23.048999999999999</v>
+        <v>25.740000000000002</v>
       </c>
       <c r="G14" s="19">
-        <v>23.048999999999999</v>
+        <v>25.740000000000002</v>
       </c>
       <c r="H14" s="19">
-        <v>23.048999999999999</v>
+        <v>25.740000000000002</v>
       </c>
       <c r="I14" s="19">
-        <v>23.048999999999999</v>
+        <v>25.740000000000002</v>
       </c>
       <c r="J14" s="19">
-        <v>23.048999999999999</v>
+        <v>25.740000000000002</v>
       </c>
       <c r="K14" s="19">
-        <v>23.048999999999999</v>
+        <v>25.740000000000002</v>
       </c>
       <c r="L14" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" s="8" t="str" cm="1">
         <f t="array" ref="O14">IF(
-    ISBLANK(L14)=FALSE,
+    AND(
+        ISBLANK(L14)=FALSE,
+        ISNUMBER($B14)=FALSE
+    ),
     _xlfn.IFS(
         L14=0,
             "☆☆☆☆  No damage",
@@ -13316,11 +13701,32 @@
     ),
     ""
 )</f>
-        <v>★★★☆  Target (expected)</v>
-      </c>
-      <c r="P14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>★★☆  Target (expected)</v>
+        <v>★★★★  High (heavy hitter)</v>
+      </c>
+      <c r="P14" s="8" t="str" cm="1">
+        <f t="array" ref="P14">IF(
+    AND(
+        ISBLANK(M14)=FALSE,
+        ISNUMBER($B14)=FALSE
+    ),
+    _xlfn.IFS(
+        M14=0,
+            "☆☆☆☆  No damage",
+        AND(M14&gt;0,M14&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M14&gt;=2,M14&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M14&gt;=3,M14&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M14&gt;=4,M14&lt;5),
+            "★★★★  High (heavy hitter)",
+        M14=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v>★★★★  High (heavy hitter)</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -13329,41 +13735,44 @@
         <v>1</v>
       </c>
       <c r="C15" s="19">
-        <v>7.2003750000000002</v>
+        <v>8.0437500000000011</v>
       </c>
       <c r="D15" s="19">
-        <v>11.5245</v>
+        <v>12.870000000000001</v>
       </c>
       <c r="E15" s="19">
-        <v>11.5245</v>
+        <v>12.870000000000001</v>
       </c>
       <c r="F15" s="19">
-        <v>23.048999999999999</v>
+        <v>25.740000000000002</v>
       </c>
       <c r="G15" s="19">
-        <v>23.048999999999999</v>
+        <v>25.740000000000002</v>
       </c>
       <c r="H15" s="19">
-        <v>23.048999999999999</v>
+        <v>25.740000000000002</v>
       </c>
       <c r="I15" s="19">
-        <v>23.048999999999999</v>
+        <v>25.740000000000002</v>
       </c>
       <c r="J15" s="19">
-        <v>23.048999999999999</v>
+        <v>25.740000000000002</v>
       </c>
       <c r="K15" s="19">
-        <v>23.048999999999999</v>
+        <v>25.740000000000002</v>
       </c>
       <c r="L15" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O15" s="8" t="str" cm="1">
         <f t="array" ref="O15">IF(
-    ISBLANK(L15)=FALSE,
+    AND(
+        ISBLANK(L15)=FALSE,
+        ISNUMBER($B15)=FALSE
+    ),
     _xlfn.IFS(
         L15=0,
             "☆☆☆☆  No damage",
@@ -13381,11 +13790,32 @@
     ),
     ""
 )</f>
-        <v>★★★☆  Target (expected)</v>
-      </c>
-      <c r="P15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>★★☆  Target (expected)</v>
+        <v/>
+      </c>
+      <c r="P15" s="8" t="str" cm="1">
+        <f t="array" ref="P15">IF(
+    AND(
+        ISBLANK(M15)=FALSE,
+        ISNUMBER($B15)=FALSE
+    ),
+    _xlfn.IFS(
+        M15=0,
+            "☆☆☆☆  No damage",
+        AND(M15&gt;0,M15&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M15&gt;=2,M15&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M15&gt;=3,M15&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M15&gt;=4,M15&lt;5),
+            "★★★★  High (heavy hitter)",
+        M15=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -13428,7 +13858,10 @@
       </c>
       <c r="O16" s="8" t="str" cm="1">
         <f t="array" ref="O16">IF(
-    ISBLANK(L16)=FALSE,
+    AND(
+        ISBLANK(L16)=FALSE,
+        ISNUMBER($B16)=FALSE
+    ),
     _xlfn.IFS(
         L16=0,
             "☆☆☆☆  No damage",
@@ -13448,9 +13881,30 @@
 )</f>
         <v>★★★☆  Target (expected)</v>
       </c>
-      <c r="P16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>🕱🕱🕱🕱  Deadly</v>
+      <c r="P16" s="8" t="str" cm="1">
+        <f t="array" ref="P16">IF(
+    AND(
+        ISBLANK(M16)=FALSE,
+        ISNUMBER($B16)=FALSE
+    ),
+    _xlfn.IFS(
+        M16=0,
+            "☆☆☆☆  No damage",
+        AND(M16&gt;0,M16&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M16&gt;=2,M16&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M16&gt;=3,M16&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M16&gt;=4,M16&lt;5),
+            "★★★★  High (heavy hitter)",
+        M16=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v>🕱🕱🕱🕱🕱  Deadly</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -13493,7 +13947,10 @@
       </c>
       <c r="O17" s="8" t="str" cm="1">
         <f t="array" ref="O17">IF(
-    ISBLANK(L17)=FALSE,
+    AND(
+        ISBLANK(L17)=FALSE,
+        ISNUMBER($B17)=FALSE
+    ),
     _xlfn.IFS(
         L17=0,
             "☆☆☆☆  No damage",
@@ -13511,11 +13968,32 @@
     ),
     ""
 )</f>
-        <v>★★★☆  Target (expected)</v>
-      </c>
-      <c r="P17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>🕱🕱🕱🕱  Deadly</v>
+        <v/>
+      </c>
+      <c r="P17" s="8" t="str" cm="1">
+        <f t="array" ref="P17">IF(
+    AND(
+        ISBLANK(M17)=FALSE,
+        ISNUMBER($B17)=FALSE
+    ),
+    _xlfn.IFS(
+        M17=0,
+            "☆☆☆☆  No damage",
+        AND(M17&gt;0,M17&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M17&gt;=2,M17&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M17&gt;=3,M17&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M17&gt;=4,M17&lt;5),
+            "★★★★  High (heavy hitter)",
+        M17=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -13524,31 +14002,31 @@
       </c>
       <c r="B18"/>
       <c r="C18" s="19">
-        <v>31.1666666666667</v>
+        <v>31.166666666666664</v>
       </c>
       <c r="D18" s="19">
-        <v>31.1666666666667</v>
+        <v>31.166666666666664</v>
       </c>
       <c r="E18" s="19">
-        <v>124.666666666667</v>
+        <v>124.66666666666666</v>
       </c>
       <c r="F18" s="19">
-        <v>31.1666666666667</v>
+        <v>31.166666666666664</v>
       </c>
       <c r="G18" s="19">
-        <v>124.666666666667</v>
+        <v>124.66666666666666</v>
       </c>
       <c r="H18" s="19">
-        <v>31.1666666666667</v>
+        <v>31.166666666666664</v>
       </c>
       <c r="I18" s="19">
-        <v>124.666666666667</v>
+        <v>124.66666666666666</v>
       </c>
       <c r="J18" s="19">
-        <v>31.1666666666667</v>
+        <v>31.166666666666664</v>
       </c>
       <c r="K18" s="19">
-        <v>124.666666666667</v>
+        <v>124.66666666666666</v>
       </c>
       <c r="L18" s="19">
         <v>3</v>
@@ -13558,7 +14036,10 @@
       </c>
       <c r="O18" s="8" t="str" cm="1">
         <f t="array" ref="O18">IF(
-    ISBLANK(L18)=FALSE,
+    AND(
+        ISBLANK(L18)=FALSE,
+        ISNUMBER($B18)=FALSE
+    ),
     _xlfn.IFS(
         L18=0,
             "☆☆☆☆  No damage",
@@ -13578,9 +14059,30 @@
 )</f>
         <v>★★★☆  Target (expected)</v>
       </c>
-      <c r="P18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>🕱🕱🕱🕱  Deadly</v>
+      <c r="P18" s="8" t="str" cm="1">
+        <f t="array" ref="P18">IF(
+    AND(
+        ISBLANK(M18)=FALSE,
+        ISNUMBER($B18)=FALSE
+    ),
+    _xlfn.IFS(
+        M18=0,
+            "☆☆☆☆  No damage",
+        AND(M18&gt;0,M18&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M18&gt;=2,M18&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M18&gt;=3,M18&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M18&gt;=4,M18&lt;5),
+            "★★★★  High (heavy hitter)",
+        M18=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v>🕱🕱🕱🕱🕱  Deadly</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -13589,31 +14091,31 @@
         <v>1</v>
       </c>
       <c r="C19" s="19">
-        <v>31.1666666666667</v>
+        <v>31.166666666666664</v>
       </c>
       <c r="D19" s="19">
-        <v>31.1666666666667</v>
+        <v>31.166666666666664</v>
       </c>
       <c r="E19" s="19">
-        <v>124.666666666667</v>
+        <v>124.66666666666666</v>
       </c>
       <c r="F19" s="19">
-        <v>31.1666666666667</v>
+        <v>31.166666666666664</v>
       </c>
       <c r="G19" s="19">
-        <v>124.666666666667</v>
+        <v>124.66666666666666</v>
       </c>
       <c r="H19" s="19">
-        <v>31.1666666666667</v>
+        <v>31.166666666666664</v>
       </c>
       <c r="I19" s="19">
-        <v>124.666666666667</v>
+        <v>124.66666666666666</v>
       </c>
       <c r="J19" s="19">
-        <v>31.1666666666667</v>
+        <v>31.166666666666664</v>
       </c>
       <c r="K19" s="19">
-        <v>124.666666666667</v>
+        <v>124.66666666666666</v>
       </c>
       <c r="L19" s="19">
         <v>3</v>
@@ -13623,7 +14125,10 @@
       </c>
       <c r="O19" s="8" t="str" cm="1">
         <f t="array" ref="O19">IF(
-    ISBLANK(L19)=FALSE,
+    AND(
+        ISBLANK(L19)=FALSE,
+        ISNUMBER($B19)=FALSE
+    ),
     _xlfn.IFS(
         L19=0,
             "☆☆☆☆  No damage",
@@ -13641,11 +14146,32 @@
     ),
     ""
 )</f>
-        <v>★★★☆  Target (expected)</v>
-      </c>
-      <c r="P19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>🕱🕱🕱🕱  Deadly</v>
+        <v/>
+      </c>
+      <c r="P19" s="8" t="str" cm="1">
+        <f t="array" ref="P19">IF(
+    AND(
+        ISBLANK(M19)=FALSE,
+        ISNUMBER($B19)=FALSE
+    ),
+    _xlfn.IFS(
+        M19=0,
+            "☆☆☆☆  No damage",
+        AND(M19&gt;0,M19&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M19&gt;=2,M19&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M19&gt;=3,M19&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M19&gt;=4,M19&lt;5),
+            "★★★★  High (heavy hitter)",
+        M19=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -13688,7 +14214,10 @@
       </c>
       <c r="O20" s="8" t="str" cm="1">
         <f t="array" ref="O20">IF(
-    ISBLANK(L20)=FALSE,
+    AND(
+        ISBLANK(L20)=FALSE,
+        ISNUMBER($B20)=FALSE
+    ),
     _xlfn.IFS(
         L20=0,
             "☆☆☆☆  No damage",
@@ -13708,9 +14237,30 @@
 )</f>
         <v>★★★☆  Target (expected)</v>
       </c>
-      <c r="P20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>🕱🕱🕱🕱  Deadly</v>
+      <c r="P20" s="8" t="str" cm="1">
+        <f t="array" ref="P20">IF(
+    AND(
+        ISBLANK(M20)=FALSE,
+        ISNUMBER($B20)=FALSE
+    ),
+    _xlfn.IFS(
+        M20=0,
+            "☆☆☆☆  No damage",
+        AND(M20&gt;0,M20&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M20&gt;=2,M20&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M20&gt;=3,M20&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M20&gt;=4,M20&lt;5),
+            "★★★★  High (heavy hitter)",
+        M20=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v>🕱🕱🕱🕱🕱  Deadly</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -13753,7 +14303,10 @@
       </c>
       <c r="O21" s="8" t="str" cm="1">
         <f t="array" ref="O21">IF(
-    ISBLANK(L21)=FALSE,
+    AND(
+        ISBLANK(L21)=FALSE,
+        ISNUMBER($B21)=FALSE
+    ),
     _xlfn.IFS(
         L21=0,
             "☆☆☆☆  No damage",
@@ -13771,11 +14324,32 @@
     ),
     ""
 )</f>
-        <v>★★★☆  Target (expected)</v>
-      </c>
-      <c r="P21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>🕱🕱🕱🕱  Deadly</v>
+        <v/>
+      </c>
+      <c r="P21" s="8" t="str" cm="1">
+        <f t="array" ref="P21">IF(
+    AND(
+        ISBLANK(M21)=FALSE,
+        ISNUMBER($B21)=FALSE
+    ),
+    _xlfn.IFS(
+        M21=0,
+            "☆☆☆☆  No damage",
+        AND(M21&gt;0,M21&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M21&gt;=2,M21&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M21&gt;=3,M21&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M21&gt;=4,M21&lt;5),
+            "★★★★  High (heavy hitter)",
+        M21=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -13784,31 +14358,31 @@
       </c>
       <c r="B22"/>
       <c r="C22" s="19">
-        <v>8.4499999999999993</v>
+        <v>8.4500000000000011</v>
       </c>
       <c r="D22" s="19">
-        <v>8.4499999999999993</v>
+        <v>8.4500000000000011</v>
       </c>
       <c r="E22" s="19">
-        <v>8.4499999999999993</v>
+        <v>8.4500000000000011</v>
       </c>
       <c r="F22" s="19">
-        <v>8.4499999999999993</v>
+        <v>8.4500000000000011</v>
       </c>
       <c r="G22" s="19">
-        <v>8.4499999999999993</v>
+        <v>8.4500000000000011</v>
       </c>
       <c r="H22" s="19">
-        <v>8.4499999999999993</v>
+        <v>8.4500000000000011</v>
       </c>
       <c r="I22" s="19">
-        <v>8.4499999999999993</v>
+        <v>8.4500000000000011</v>
       </c>
       <c r="J22" s="19">
-        <v>8.4499999999999993</v>
+        <v>8.4500000000000011</v>
       </c>
       <c r="K22" s="19">
-        <v>8.4499999999999993</v>
+        <v>8.4500000000000011</v>
       </c>
       <c r="L22" s="19">
         <v>2</v>
@@ -13818,7 +14392,10 @@
       </c>
       <c r="O22" s="8" t="str" cm="1">
         <f t="array" ref="O22">IF(
-    ISBLANK(L22)=FALSE,
+    AND(
+        ISBLANK(L22)=FALSE,
+        ISNUMBER($B22)=FALSE
+    ),
     _xlfn.IFS(
         L22=0,
             "☆☆☆☆  No damage",
@@ -13838,9 +14415,30 @@
 )</f>
         <v>★★☆☆  Low (support, control, debuff)</v>
       </c>
-      <c r="P22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>★☆☆  Low (support, control, debuff)</v>
+      <c r="P22" s="8" t="str" cm="1">
+        <f t="array" ref="P22">IF(
+    AND(
+        ISBLANK(M22)=FALSE,
+        ISNUMBER($B22)=FALSE
+    ),
+    _xlfn.IFS(
+        M22=0,
+            "☆☆☆☆  No damage",
+        AND(M22&gt;0,M22&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M22&gt;=2,M22&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M22&gt;=3,M22&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M22&gt;=4,M22&lt;5),
+            "★★★★  High (heavy hitter)",
+        M22=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v>★★☆☆  Low (support, control, debuff)</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -13849,31 +14447,31 @@
         <v>1</v>
       </c>
       <c r="C23" s="19">
-        <v>8.4499999999999993</v>
+        <v>8.4500000000000011</v>
       </c>
       <c r="D23" s="19">
-        <v>8.4499999999999993</v>
+        <v>8.4500000000000011</v>
       </c>
       <c r="E23" s="19">
-        <v>8.4499999999999993</v>
+        <v>8.4500000000000011</v>
       </c>
       <c r="F23" s="19">
-        <v>8.4499999999999993</v>
+        <v>8.4500000000000011</v>
       </c>
       <c r="G23" s="19">
-        <v>8.4499999999999993</v>
+        <v>8.4500000000000011</v>
       </c>
       <c r="H23" s="19">
-        <v>8.4499999999999993</v>
+        <v>8.4500000000000011</v>
       </c>
       <c r="I23" s="19">
-        <v>8.4499999999999993</v>
+        <v>8.4500000000000011</v>
       </c>
       <c r="J23" s="19">
-        <v>8.4499999999999993</v>
+        <v>8.4500000000000011</v>
       </c>
       <c r="K23" s="19">
-        <v>8.4499999999999993</v>
+        <v>8.4500000000000011</v>
       </c>
       <c r="L23" s="19">
         <v>2</v>
@@ -13883,7 +14481,10 @@
       </c>
       <c r="O23" s="8" t="str" cm="1">
         <f t="array" ref="O23">IF(
-    ISBLANK(L23)=FALSE,
+    AND(
+        ISBLANK(L23)=FALSE,
+        ISNUMBER($B23)=FALSE
+    ),
     _xlfn.IFS(
         L23=0,
             "☆☆☆☆  No damage",
@@ -13901,11 +14502,32 @@
     ),
     ""
 )</f>
-        <v>★★☆☆  Low (support, control, debuff)</v>
-      </c>
-      <c r="P23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>★☆☆  Low (support, control, debuff)</v>
+        <v/>
+      </c>
+      <c r="P23" s="8" t="str" cm="1">
+        <f t="array" ref="P23">IF(
+    AND(
+        ISBLANK(M23)=FALSE,
+        ISNUMBER($B23)=FALSE
+    ),
+    _xlfn.IFS(
+        M23=0,
+            "☆☆☆☆  No damage",
+        AND(M23&gt;0,M23&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M23&gt;=2,M23&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M23&gt;=3,M23&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M23&gt;=4,M23&lt;5),
+            "★★★★  High (heavy hitter)",
+        M23=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -13914,31 +14536,31 @@
       </c>
       <c r="B24"/>
       <c r="C24" s="19">
-        <v>8.5556249999999991</v>
+        <v>8.5556250000000009</v>
       </c>
       <c r="D24" s="19">
-        <v>8.5556249999999991</v>
+        <v>8.5556250000000009</v>
       </c>
       <c r="E24" s="19">
-        <v>8.5556249999999991</v>
+        <v>8.5556250000000009</v>
       </c>
       <c r="F24" s="19">
-        <v>8.5556249999999991</v>
+        <v>8.5556250000000009</v>
       </c>
       <c r="G24" s="19">
-        <v>8.5556249999999991</v>
+        <v>8.5556250000000009</v>
       </c>
       <c r="H24" s="19">
-        <v>34.222499999999997</v>
+        <v>34.222500000000004</v>
       </c>
       <c r="I24" s="19">
-        <v>34.222499999999997</v>
+        <v>34.222500000000004</v>
       </c>
       <c r="J24" s="19">
-        <v>8.5556249999999991</v>
+        <v>8.5556250000000009</v>
       </c>
       <c r="K24" s="19">
-        <v>8.5556249999999991</v>
+        <v>8.5556250000000009</v>
       </c>
       <c r="L24" s="19">
         <v>2</v>
@@ -13948,7 +14570,10 @@
       </c>
       <c r="O24" s="8" t="str" cm="1">
         <f t="array" ref="O24">IF(
-    ISBLANK(L24)=FALSE,
+    AND(
+        ISBLANK(L24)=FALSE,
+        ISNUMBER($B24)=FALSE
+    ),
     _xlfn.IFS(
         L24=0,
             "☆☆☆☆  No damage",
@@ -13968,9 +14593,30 @@
 )</f>
         <v>★★☆☆  Low (support, control, debuff)</v>
       </c>
-      <c r="P24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>★☆☆  Low (support, control, debuff)</v>
+      <c r="P24" s="8" t="str" cm="1">
+        <f t="array" ref="P24">IF(
+    AND(
+        ISBLANK(M24)=FALSE,
+        ISNUMBER($B24)=FALSE
+    ),
+    _xlfn.IFS(
+        M24=0,
+            "☆☆☆☆  No damage",
+        AND(M24&gt;0,M24&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M24&gt;=2,M24&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M24&gt;=3,M24&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M24&gt;=4,M24&lt;5),
+            "★★★★  High (heavy hitter)",
+        M24=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v>★★☆☆  Low (support, control, debuff)</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -13993,27 +14639,30 @@
       <c r="G25" s="19">
         <v>0</v>
       </c>
-      <c r="H25" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>77</v>
+      <c r="H25" s="19">
+        <v>0</v>
+      </c>
+      <c r="I25" s="19">
+        <v>0</v>
+      </c>
+      <c r="J25" s="19">
+        <v>0</v>
+      </c>
+      <c r="K25" s="19">
+        <v>0</v>
+      </c>
+      <c r="L25" s="19">
+        <v>0</v>
+      </c>
+      <c r="M25" s="19">
+        <v>0</v>
       </c>
       <c r="O25" s="8" t="str" cm="1">
         <f t="array" ref="O25">IF(
-    ISBLANK(L25)=FALSE,
+    AND(
+        ISBLANK(L25)=FALSE,
+        ISNUMBER($B25)=FALSE
+    ),
     _xlfn.IFS(
         L25=0,
             "☆☆☆☆  No damage",
@@ -14031,11 +14680,32 @@
     ),
     ""
 )</f>
-        <v>-</v>
-      </c>
-      <c r="P25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v/>
+      </c>
+      <c r="P25" s="8" t="str" cm="1">
+        <f t="array" ref="P25">IF(
+    AND(
+        ISBLANK(M25)=FALSE,
+        ISNUMBER($B25)=FALSE
+    ),
+    _xlfn.IFS(
+        M25=0,
+            "☆☆☆☆  No damage",
+        AND(M25&gt;0,M25&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M25&gt;=2,M25&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M25&gt;=3,M25&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M25&gt;=4,M25&lt;5),
+            "★★★★  High (heavy hitter)",
+        M25=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -14058,27 +14728,30 @@
       <c r="G26" s="19">
         <v>11.407500000000001</v>
       </c>
-      <c r="H26" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M26" s="19" t="s">
-        <v>77</v>
+      <c r="H26" s="19">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19">
+        <v>0</v>
+      </c>
+      <c r="J26" s="19">
+        <v>0</v>
+      </c>
+      <c r="K26" s="19">
+        <v>0</v>
+      </c>
+      <c r="L26" s="19">
+        <v>0</v>
+      </c>
+      <c r="M26" s="19">
+        <v>0</v>
       </c>
       <c r="O26" s="8" t="str" cm="1">
         <f t="array" ref="O26">IF(
-    ISBLANK(L26)=FALSE,
+    AND(
+        ISBLANK(L26)=FALSE,
+        ISNUMBER($B26)=FALSE
+    ),
     _xlfn.IFS(
         L26=0,
             "☆☆☆☆  No damage",
@@ -14096,11 +14769,32 @@
     ),
     ""
 )</f>
-        <v>-</v>
-      </c>
-      <c r="P26" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v/>
+      </c>
+      <c r="P26" s="8" t="str" cm="1">
+        <f t="array" ref="P26">IF(
+    AND(
+        ISBLANK(M26)=FALSE,
+        ISNUMBER($B26)=FALSE
+    ),
+    _xlfn.IFS(
+        M26=0,
+            "☆☆☆☆  No damage",
+        AND(M26&gt;0,M26&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M26&gt;=2,M26&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M26&gt;=3,M26&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M26&gt;=4,M26&lt;5),
+            "★★★★  High (heavy hitter)",
+        M26=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -14123,27 +14817,30 @@
       <c r="G27" s="19">
         <v>11.407500000000001</v>
       </c>
-      <c r="H27" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M27" s="19" t="s">
-        <v>77</v>
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="19">
+        <v>0</v>
+      </c>
+      <c r="J27" s="19">
+        <v>0</v>
+      </c>
+      <c r="K27" s="19">
+        <v>0</v>
+      </c>
+      <c r="L27" s="19">
+        <v>0</v>
+      </c>
+      <c r="M27" s="19">
+        <v>0</v>
       </c>
       <c r="O27" s="8" t="str" cm="1">
         <f t="array" ref="O27">IF(
-    ISBLANK(L27)=FALSE,
+    AND(
+        ISBLANK(L27)=FALSE,
+        ISNUMBER($B27)=FALSE
+    ),
     _xlfn.IFS(
         L27=0,
             "☆☆☆☆  No damage",
@@ -14161,11 +14858,32 @@
     ),
     ""
 )</f>
-        <v>-</v>
-      </c>
-      <c r="P27" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v/>
+      </c>
+      <c r="P27" s="8" t="str" cm="1">
+        <f t="array" ref="P27">IF(
+    AND(
+        ISBLANK(M27)=FALSE,
+        ISNUMBER($B27)=FALSE
+    ),
+    _xlfn.IFS(
+        M27=0,
+            "☆☆☆☆  No damage",
+        AND(M27&gt;0,M27&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M27&gt;=2,M27&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M27&gt;=3,M27&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M27&gt;=4,M27&lt;5),
+            "★★★★  High (heavy hitter)",
+        M27=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -14189,16 +14907,16 @@
         <v>11.407500000000001</v>
       </c>
       <c r="H28" s="19">
-        <v>34.222499999999997</v>
+        <v>34.222500000000004</v>
       </c>
       <c r="I28" s="19">
-        <v>34.222499999999997</v>
+        <v>34.222500000000004</v>
       </c>
       <c r="J28" s="19">
-        <v>8.5556249999999991</v>
+        <v>8.5556250000000009</v>
       </c>
       <c r="K28" s="19">
-        <v>8.5556249999999991</v>
+        <v>8.5556250000000009</v>
       </c>
       <c r="L28" s="19">
         <v>2</v>
@@ -14208,7 +14926,10 @@
       </c>
       <c r="O28" s="8" t="str" cm="1">
         <f t="array" ref="O28">IF(
-    ISBLANK(L28)=FALSE,
+    AND(
+        ISBLANK(L28)=FALSE,
+        ISNUMBER($B28)=FALSE
+    ),
     _xlfn.IFS(
         L28=0,
             "☆☆☆☆  No damage",
@@ -14226,11 +14947,32 @@
     ),
     ""
 )</f>
-        <v>★★☆☆  Low (support, control, debuff)</v>
-      </c>
-      <c r="P28" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>★☆☆  Low (support, control, debuff)</v>
+        <v/>
+      </c>
+      <c r="P28" s="8" t="str" cm="1">
+        <f t="array" ref="P28">IF(
+    AND(
+        ISBLANK(M28)=FALSE,
+        ISNUMBER($B28)=FALSE
+    ),
+    _xlfn.IFS(
+        M28=0,
+            "☆☆☆☆  No damage",
+        AND(M28&gt;0,M28&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M28&gt;=2,M28&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M28&gt;=3,M28&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M28&gt;=4,M28&lt;5),
+            "★★★★  High (heavy hitter)",
+        M28=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -14239,31 +14981,31 @@
       </c>
       <c r="B29"/>
       <c r="C29" s="19">
-        <v>18.112500000000001</v>
+        <v>18.170833333333334</v>
       </c>
       <c r="D29" s="19">
-        <v>20.5625</v>
+        <v>20.795833333333334</v>
       </c>
       <c r="E29" s="19">
-        <v>82.25</v>
+        <v>83.183333333333337</v>
       </c>
       <c r="F29" s="19">
-        <v>20.5625</v>
+        <v>20.795833333333334</v>
       </c>
       <c r="G29" s="19">
-        <v>82.25</v>
+        <v>83.183333333333337</v>
       </c>
       <c r="H29" s="19">
-        <v>123.375</v>
+        <v>124.77500000000001</v>
       </c>
       <c r="I29" s="19">
-        <v>493.5</v>
+        <v>499.1</v>
       </c>
       <c r="J29" s="19">
-        <v>20.5625</v>
+        <v>20.795833333333334</v>
       </c>
       <c r="K29" s="19">
-        <v>82.25</v>
+        <v>83.183333333333337</v>
       </c>
       <c r="L29" s="19">
         <v>3</v>
@@ -14273,7 +15015,10 @@
       </c>
       <c r="O29" s="8" t="str" cm="1">
         <f t="array" ref="O29">IF(
-    ISBLANK(L29)=FALSE,
+    AND(
+        ISBLANK(L29)=FALSE,
+        ISNUMBER($B29)=FALSE
+    ),
     _xlfn.IFS(
         L29=0,
             "☆☆☆☆  No damage",
@@ -14293,9 +15038,30 @@
 )</f>
         <v>★★★☆  Target (expected)</v>
       </c>
-      <c r="P29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>🕱🕱🕱🕱  Deadly</v>
+      <c r="P29" s="8" t="str" cm="1">
+        <f t="array" ref="P29">IF(
+    AND(
+        ISBLANK(M29)=FALSE,
+        ISNUMBER($B29)=FALSE
+    ),
+    _xlfn.IFS(
+        M29=0,
+            "☆☆☆☆  No damage",
+        AND(M29&gt;0,M29&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M29&gt;=2,M29&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M29&gt;=3,M29&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M29&gt;=4,M29&lt;5),
+            "★★★★  High (heavy hitter)",
+        M29=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v>🕱🕱🕱🕱🕱  Deadly</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -14318,27 +15084,30 @@
       <c r="G30" s="19">
         <v>63</v>
       </c>
-      <c r="H30" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>77</v>
+      <c r="H30" s="19">
+        <v>0</v>
+      </c>
+      <c r="I30" s="19">
+        <v>0</v>
+      </c>
+      <c r="J30" s="19">
+        <v>0</v>
+      </c>
+      <c r="K30" s="19">
+        <v>0</v>
+      </c>
+      <c r="L30" s="19">
+        <v>0</v>
+      </c>
+      <c r="M30" s="19">
+        <v>0</v>
       </c>
       <c r="O30" s="8" t="str" cm="1">
         <f t="array" ref="O30">IF(
-    ISBLANK(L30)=FALSE,
+    AND(
+        ISBLANK(L30)=FALSE,
+        ISNUMBER($B30)=FALSE
+    ),
     _xlfn.IFS(
         L30=0,
             "☆☆☆☆  No damage",
@@ -14356,11 +15125,32 @@
     ),
     ""
 )</f>
-        <v>-</v>
-      </c>
-      <c r="P30" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v/>
+      </c>
+      <c r="P30" s="8" t="str" cm="1">
+        <f t="array" ref="P30">IF(
+    AND(
+        ISBLANK(M30)=FALSE,
+        ISNUMBER($B30)=FALSE
+    ),
+    _xlfn.IFS(
+        M30=0,
+            "☆☆☆☆  No damage",
+        AND(M30&gt;0,M30&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M30&gt;=2,M30&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M30&gt;=3,M30&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M30&gt;=4,M30&lt;5),
+            "★★★★  High (heavy hitter)",
+        M30=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -14383,27 +15173,30 @@
       <c r="G31" s="19">
         <v>63</v>
       </c>
-      <c r="H31" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M31" s="19" t="s">
-        <v>77</v>
+      <c r="H31" s="19">
+        <v>0</v>
+      </c>
+      <c r="I31" s="19">
+        <v>0</v>
+      </c>
+      <c r="J31" s="19">
+        <v>0</v>
+      </c>
+      <c r="K31" s="19">
+        <v>0</v>
+      </c>
+      <c r="L31" s="19">
+        <v>0</v>
+      </c>
+      <c r="M31" s="19">
+        <v>0</v>
       </c>
       <c r="O31" s="8" t="str" cm="1">
         <f t="array" ref="O31">IF(
-    ISBLANK(L31)=FALSE,
+    AND(
+        ISBLANK(L31)=FALSE,
+        ISNUMBER($B31)=FALSE
+    ),
     _xlfn.IFS(
         L31=0,
             "☆☆☆☆  No damage",
@@ -14421,11 +15214,32 @@
     ),
     ""
 )</f>
-        <v>-</v>
-      </c>
-      <c r="P31" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v/>
+      </c>
+      <c r="P31" s="8" t="str" cm="1">
+        <f t="array" ref="P31">IF(
+    AND(
+        ISBLANK(M31)=FALSE,
+        ISNUMBER($B31)=FALSE
+    ),
+    _xlfn.IFS(
+        M31=0,
+            "☆☆☆☆  No damage",
+        AND(M31&gt;0,M31&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M31&gt;=2,M31&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M31&gt;=3,M31&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M31&gt;=4,M31&lt;5),
+            "★★★★  High (heavy hitter)",
+        M31=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -14448,27 +15262,30 @@
       <c r="G32" s="19">
         <v>63</v>
       </c>
-      <c r="H32" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M32" s="19" t="s">
-        <v>77</v>
+      <c r="H32" s="19">
+        <v>0</v>
+      </c>
+      <c r="I32" s="19">
+        <v>0</v>
+      </c>
+      <c r="J32" s="19">
+        <v>0</v>
+      </c>
+      <c r="K32" s="19">
+        <v>0</v>
+      </c>
+      <c r="L32" s="19">
+        <v>0</v>
+      </c>
+      <c r="M32" s="19">
+        <v>0</v>
       </c>
       <c r="O32" s="8" t="str" cm="1">
         <f t="array" ref="O32">IF(
-    ISBLANK(L32)=FALSE,
+    AND(
+        ISBLANK(L32)=FALSE,
+        ISNUMBER($B32)=FALSE
+    ),
     _xlfn.IFS(
         L32=0,
             "☆☆☆☆  No damage",
@@ -14486,11 +15303,32 @@
     ),
     ""
 )</f>
-        <v>-</v>
-      </c>
-      <c r="P32" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v/>
+      </c>
+      <c r="P32" s="8" t="str" cm="1">
+        <f t="array" ref="P32">IF(
+    AND(
+        ISBLANK(M32)=FALSE,
+        ISNUMBER($B32)=FALSE
+    ),
+    _xlfn.IFS(
+        M32=0,
+            "☆☆☆☆  No damage",
+        AND(M32&gt;0,M32&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M32&gt;=2,M32&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M32&gt;=3,M32&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M32&gt;=4,M32&lt;5),
+            "★★★★  High (heavy hitter)",
+        M32=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -14513,27 +15351,30 @@
       <c r="G33" s="19">
         <v>119</v>
       </c>
-      <c r="H33" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J33" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M33" s="19" t="s">
-        <v>77</v>
+      <c r="H33" s="19">
+        <v>0</v>
+      </c>
+      <c r="I33" s="19">
+        <v>0</v>
+      </c>
+      <c r="J33" s="19">
+        <v>0</v>
+      </c>
+      <c r="K33" s="19">
+        <v>0</v>
+      </c>
+      <c r="L33" s="19">
+        <v>0</v>
+      </c>
+      <c r="M33" s="19">
+        <v>0</v>
       </c>
       <c r="O33" s="8" t="str" cm="1">
         <f t="array" ref="O33">IF(
-    ISBLANK(L33)=FALSE,
+    AND(
+        ISBLANK(L33)=FALSE,
+        ISNUMBER($B33)=FALSE
+    ),
     _xlfn.IFS(
         L33=0,
             "☆☆☆☆  No damage",
@@ -14551,11 +15392,32 @@
     ),
     ""
 )</f>
-        <v>-</v>
-      </c>
-      <c r="P33" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v/>
+      </c>
+      <c r="P33" s="8" t="str" cm="1">
+        <f t="array" ref="P33">IF(
+    AND(
+        ISBLANK(M33)=FALSE,
+        ISNUMBER($B33)=FALSE
+    ),
+    _xlfn.IFS(
+        M33=0,
+            "☆☆☆☆  No damage",
+        AND(M33&gt;0,M33&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M33&gt;=2,M33&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M33&gt;=3,M33&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M33&gt;=4,M33&lt;5),
+            "★★★★  High (heavy hitter)",
+        M33=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -14564,41 +15426,44 @@
         <v>5</v>
       </c>
       <c r="C34" s="19">
-        <v>4.9000000000000004</v>
+        <v>5.25</v>
       </c>
       <c r="D34" s="19">
-        <v>19.600000000000001</v>
+        <v>21</v>
       </c>
       <c r="E34" s="19">
-        <v>78.400000000000006</v>
+        <v>84</v>
       </c>
       <c r="F34" s="19">
-        <v>19.600000000000001</v>
+        <v>21</v>
       </c>
       <c r="G34" s="19">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="L34" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M34" s="19" t="s">
-        <v>77</v>
+        <v>84</v>
+      </c>
+      <c r="H34" s="19">
+        <v>0</v>
+      </c>
+      <c r="I34" s="19">
+        <v>0</v>
+      </c>
+      <c r="J34" s="19">
+        <v>0</v>
+      </c>
+      <c r="K34" s="19">
+        <v>0</v>
+      </c>
+      <c r="L34" s="19">
+        <v>0</v>
+      </c>
+      <c r="M34" s="19">
+        <v>0</v>
       </c>
       <c r="O34" s="8" t="str" cm="1">
         <f t="array" ref="O34">IF(
-    ISBLANK(L34)=FALSE,
+    AND(
+        ISBLANK(L34)=FALSE,
+        ISNUMBER($B34)=FALSE
+    ),
     _xlfn.IFS(
         L34=0,
             "☆☆☆☆  No damage",
@@ -14616,11 +15481,32 @@
     ),
     ""
 )</f>
-        <v>-</v>
-      </c>
-      <c r="P34" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v/>
+      </c>
+      <c r="P34" s="8" t="str" cm="1">
+        <f t="array" ref="P34">IF(
+    AND(
+        ISBLANK(M34)=FALSE,
+        ISNUMBER($B34)=FALSE
+    ),
+    _xlfn.IFS(
+        M34=0,
+            "☆☆☆☆  No damage",
+        AND(M34&gt;0,M34&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M34&gt;=2,M34&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M34&gt;=3,M34&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M34&gt;=4,M34&lt;5),
+            "★★★★  High (heavy hitter)",
+        M34=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -14644,16 +15530,16 @@
         <v>107.1</v>
       </c>
       <c r="H35" s="19">
-        <v>123.375</v>
+        <v>124.77500000000001</v>
       </c>
       <c r="I35" s="19">
-        <v>493.5</v>
+        <v>499.1</v>
       </c>
       <c r="J35" s="19">
-        <v>20.5625</v>
+        <v>20.795833333333334</v>
       </c>
       <c r="K35" s="19">
-        <v>82.25</v>
+        <v>83.183333333333337</v>
       </c>
       <c r="L35" s="19">
         <v>3</v>
@@ -14663,7 +15549,10 @@
       </c>
       <c r="O35" s="8" t="str" cm="1">
         <f t="array" ref="O35">IF(
-    ISBLANK(L35)=FALSE,
+    AND(
+        ISBLANK(L35)=FALSE,
+        ISNUMBER($B35)=FALSE
+    ),
     _xlfn.IFS(
         L35=0,
             "☆☆☆☆  No damage",
@@ -14681,54 +15570,78 @@
     ),
     ""
 )</f>
-        <v>★★★☆  Target (expected)</v>
-      </c>
-      <c r="P35" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>🕱🕱🕱🕱  Deadly</v>
+        <v/>
+      </c>
+      <c r="P35" s="8" t="str" cm="1">
+        <f t="array" ref="P35">IF(
+    AND(
+        ISBLANK(M35)=FALSE,
+        ISNUMBER($B35)=FALSE
+    ),
+    _xlfn.IFS(
+        M35=0,
+            "☆☆☆☆  No damage",
+        AND(M35&gt;0,M35&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M35&gt;=2,M35&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M35&gt;=3,M35&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M35&gt;=4,M35&lt;5),
+            "★★★★  High (heavy hitter)",
+        M35=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B36"/>
       <c r="C36" s="19">
-        <v>12.8975388020833</v>
+        <v>13.239363802083332</v>
       </c>
       <c r="D36" s="19">
-        <v>15.654688107638901</v>
+        <v>16.309711024305553</v>
       </c>
       <c r="E36" s="19">
-        <v>42.869271440972199</v>
+        <v>43.699294357638884</v>
       </c>
       <c r="F36" s="19">
-        <v>17.891072123015899</v>
+        <v>18.639669742063489</v>
       </c>
       <c r="G36" s="19">
-        <v>48.993453075396801</v>
+        <v>49.94205069444444</v>
       </c>
       <c r="H36" s="19">
-        <v>34.155683143939399</v>
+        <v>35.584824053030303</v>
       </c>
       <c r="I36" s="19">
-        <v>93.532955871212195</v>
+        <v>95.343914962121204</v>
       </c>
       <c r="J36" s="19">
-        <v>20.5086945075758</v>
+        <v>21.625411174242423</v>
       </c>
       <c r="K36" s="19">
-        <v>51.846194507575802</v>
+        <v>53.026547537878784</v>
       </c>
       <c r="L36" s="19">
-        <v>2.8181818181818201</v>
+        <v>3</v>
       </c>
       <c r="M36" s="19">
-        <v>3.5454545454545499</v>
+        <v>3.7272727272727271</v>
       </c>
       <c r="O36" s="8" t="str" cm="1">
         <f t="array" ref="O36">IF(
-    ISBLANK(L36)=FALSE,
+    AND(
+        ISBLANK(L36)=FALSE,
+        ISNUMBER($B36)=FALSE
+    ),
     _xlfn.IFS(
         L36=0,
             "☆☆☆☆  No damage",
@@ -14746,11 +15659,32 @@
     ),
     ""
 )</f>
-        <v>★★☆☆  Low (support, control, debuff)</v>
-      </c>
-      <c r="P36" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>★★☆  Target (expected)</v>
+        <v>★★★☆  Target (expected)</v>
+      </c>
+      <c r="P36" s="8" t="str" cm="1">
+        <f t="array" ref="P36">IF(
+    AND(
+        ISBLANK(M36)=FALSE,
+        ISNUMBER($B36)=FALSE
+    ),
+    _xlfn.IFS(
+        M36=0,
+            "☆☆☆☆  No damage",
+        AND(M36&gt;0,M36&lt;2),
+            "★☆☆☆  Lowest (not helping)",
+        AND(M36&gt;=2,M36&lt;3),
+            "★★☆☆  Low (support, control, debuff)",
+        AND(M36&gt;=3,M36&lt;4),
+            "★★★☆  Target (expected)",
+        AND(M36&gt;=4,M36&lt;5),
+            "★★★★  High (heavy hitter)",
+        M36=5,
+            "🕱🕱🕱🕱🕱  Deadly",
+        1,"-"
+    ),
+    ""
+)</f>
+        <v>★★★☆  Target (expected)</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -14860,6 +15794,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14882,37 +15817,37 @@
   <sheetData>
     <row r="1" spans="1:12" ht="43.2">
       <c r="A1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -14939,7 +15874,7 @@
         <v>28.333333333333332</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I2" s="13">
         <v>24</v>
@@ -15494,17 +16429,17 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/excel_backward_compatible/DPR Tactics Calculator.xlsx
+++ b/excel_backward_compatible/DPR Tactics Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\GitHub-personal\claire-puppylove\dnd-5e-dpr-tactics-calculator\excel_backward_compatible\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CCD920-25AE-48EC-9E44-2587086C5795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BB70F0-31D4-4418-B288-E0B583A50C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1823,6 +1823,19 @@
       <font>
         <b/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1853,37 +1866,31 @@
       <numFmt numFmtId="167" formatCode="0.00_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="174" formatCode="0.000_ "/>
+      <numFmt numFmtId="169" formatCode="0.000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="173" formatCode="0.0000_ "/>
+      <numFmt numFmtId="170" formatCode="0.0000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="172" formatCode="0.00000_ "/>
+      <numFmt numFmtId="171" formatCode="0.00000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.000000_ "/>
+      <numFmt numFmtId="172" formatCode="0.000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0.0000000_ "/>
+      <numFmt numFmtId="173" formatCode="0.0000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -1896,7 +1903,12 @@
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <font>
@@ -1907,7 +1919,7 @@
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <font>
@@ -1918,7 +1930,7 @@
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <font>
@@ -1929,18 +1941,7 @@
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <font>
@@ -1952,19 +1953,19 @@
       <numFmt numFmtId="168" formatCode="0_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <font>
@@ -1985,38 +1986,38 @@
       <alignment horizontal="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="0_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <font>
@@ -2027,25 +2028,25 @@
       <numFmt numFmtId="165" formatCode="\+0;\-0;0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <font>
@@ -2063,28 +2064,28 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="0_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <font>
@@ -2129,22 +2130,22 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
     </dxf>
     <dxf>
       <font>
@@ -2152,7 +2153,7 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000000_ "/>
+      <numFmt numFmtId="174" formatCode="0.00000000_ "/>
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
@@ -4489,6 +4490,12 @@
     <dataField name="DPR Total Rating" fld="69" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
+    <format dxfId="15">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
     <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
@@ -4505,12 +4512,6 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="8">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4690,10 +4691,32 @@
     <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="Total Damage per Round" dataDxfId="19">
       <calculatedColumnFormula>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="DPR per Target Rating" dataDxfId="18">
-      <calculatedColumnFormula>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</calculatedColumnFormula>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="DPR per Target Rating" dataDxfId="1">
+      <calculatedColumnFormula array="1">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="DPR Rating per Target Description" dataDxfId="17">
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="DPR Rating per Target Description" dataDxfId="18">
       <calculatedColumnFormula array="1">_xlfn.IFS(
     ISNUMBER(DPRTacticsCalculator[[#This Row],[DPR per Target Rating]])=FALSE,"-",
     DPRTacticsCalculator[[#This Row],[DPR per Target Rating]]=0,"☆☆☆☆  No damage",
@@ -4704,10 +4727,32 @@
     DPRTacticsCalculator[[#This Row],[DPR per Target Rating]]=5,"🕱🕱🕱🕱🕱  Deadly"
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Total DPR Rating" dataDxfId="16">
-      <calculatedColumnFormula>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</calculatedColumnFormula>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Total DPR Rating" dataDxfId="0">
+      <calculatedColumnFormula array="1">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="Total DPR Rating Description" dataDxfId="15">
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="Total DPR Rating Description" dataDxfId="17">
       <calculatedColumnFormula array="1">_xlfn.IFS(
     ISNUMBER(DPRTacticsCalculator[[#This Row],[Total DPR Rating]])=FALSE,"-",
     DPRTacticsCalculator[[#This Row],[Total DPR Rating]]=0,"☆☆☆☆  No damage",
@@ -4718,7 +4763,7 @@
     DPRTacticsCalculator[[#This Row],[Total DPR Rating]]=5,"🕱🕱🕱🕱🕱  Deadly"
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Notes" dataDxfId="14"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Notes" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4728,18 +4773,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="DPRRatingExplanation" displayName="DPRRatingExplanation" ref="A1:F21" totalsRowShown="0">
   <autoFilter ref="A1:F21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CR or LV" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Max Expected _x000a_Enemy HP" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Low DPR _x000a_Threshold" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CR or LV" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Max Expected _x000a_Enemy HP" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Low DPR _x000a_Threshold" dataDxfId="5">
       <calculatedColumnFormula>$B2/I$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Target DPR _x000a_Threshold" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Target DPR _x000a_Threshold" dataDxfId="4">
       <calculatedColumnFormula>$B2/J$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="High DPR _x000a_Threshold" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="High DPR _x000a_Threshold" dataDxfId="3">
       <calculatedColumnFormula>$B2/K$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="OP DPR _x000a_Threshold" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="OP DPR _x000a_Threshold" dataDxfId="2">
       <calculatedColumnFormula>$B2/L$2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5568,8 +5613,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>-</v>
       </c>
-      <c r="BP2" s="35" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP2" s="35" t="str" cm="1">
+        <f t="array" ref="BP2">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BQ2" s="24" t="str" cm="1">
@@ -5584,8 +5651,30 @@
 )</f>
         <v>-</v>
       </c>
-      <c r="BR2" s="33" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR2" s="33" t="str" cm="1">
+        <f t="array" ref="BR2">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BS2" s="24" t="str" cm="1">
@@ -5873,8 +5962,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>10.26</v>
       </c>
-      <c r="BP3" s="35">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP3" s="35" cm="1">
+        <f t="array" ref="BP3">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>2</v>
       </c>
       <c r="BQ3" s="24" t="str" cm="1">
@@ -5889,8 +6000,30 @@
 )</f>
         <v>★★☆☆  Low (support, control, debuff)</v>
       </c>
-      <c r="BR3" s="33">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR3" s="33" cm="1">
+        <f t="array" ref="BR3">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>2</v>
       </c>
       <c r="BS3" s="24" t="str" cm="1">
@@ -6178,8 +6311,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>-</v>
       </c>
-      <c r="BP4" s="35" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP4" s="35" t="str" cm="1">
+        <f t="array" ref="BP4">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BQ4" s="24" t="str" cm="1">
@@ -6194,8 +6349,30 @@
 )</f>
         <v>-</v>
       </c>
-      <c r="BR4" s="33" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR4" s="33" t="str" cm="1">
+        <f t="array" ref="BR4">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BS4" s="24" t="str" cm="1">
@@ -6483,8 +6660,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>13.647500000000001</v>
       </c>
-      <c r="BP5" s="35">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP5" s="35" cm="1">
+        <f t="array" ref="BP5">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>3</v>
       </c>
       <c r="BQ5" s="24" t="str" cm="1">
@@ -6499,8 +6698,30 @@
 )</f>
         <v>★★★☆  Target (expected)</v>
       </c>
-      <c r="BR5" s="33">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR5" s="33" cm="1">
+        <f t="array" ref="BR5">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>3</v>
       </c>
       <c r="BS5" s="24" t="str" cm="1">
@@ -6788,8 +7009,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>-</v>
       </c>
-      <c r="BP6" s="35" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP6" s="35" t="str" cm="1">
+        <f t="array" ref="BP6">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BQ6" s="24" t="str" cm="1">
@@ -6804,8 +7047,30 @@
 )</f>
         <v>-</v>
       </c>
-      <c r="BR6" s="33" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR6" s="33" t="str" cm="1">
+        <f t="array" ref="BR6">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BS6" s="24" t="str" cm="1">
@@ -7093,8 +7358,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>25.740000000000002</v>
       </c>
-      <c r="BP7" s="35">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP7" s="35" cm="1">
+        <f t="array" ref="BP7">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>4</v>
       </c>
       <c r="BQ7" s="24" t="str" cm="1">
@@ -7109,8 +7396,30 @@
 )</f>
         <v>★★★★  High (heavy hitter)</v>
       </c>
-      <c r="BR7" s="33">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR7" s="33" cm="1">
+        <f t="array" ref="BR7">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>4</v>
       </c>
       <c r="BS7" s="24" t="str" cm="1">
@@ -7398,8 +7707,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>119</v>
       </c>
-      <c r="BP8" s="35">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP8" s="35" cm="1">
+        <f t="array" ref="BP8">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>3</v>
       </c>
       <c r="BQ8" s="24" t="str" cm="1">
@@ -7414,8 +7745,30 @@
 )</f>
         <v>★★★☆  Target (expected)</v>
       </c>
-      <c r="BR8" s="33">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR8" s="33" cm="1">
+        <f t="array" ref="BR8">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>5</v>
       </c>
       <c r="BS8" s="24" t="str" cm="1">
@@ -7703,8 +8056,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>124.66666666666666</v>
       </c>
-      <c r="BP9" s="35">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP9" s="35" cm="1">
+        <f t="array" ref="BP9">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>3</v>
       </c>
       <c r="BQ9" s="24" t="str" cm="1">
@@ -7719,8 +8094,30 @@
 )</f>
         <v>★★★☆  Target (expected)</v>
       </c>
-      <c r="BR9" s="33">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR9" s="33" cm="1">
+        <f t="array" ref="BR9">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>5</v>
       </c>
       <c r="BS9" s="24" t="str" cm="1">
@@ -8008,8 +8405,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>133.69999999999999</v>
       </c>
-      <c r="BP10" s="35">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP10" s="35" cm="1">
+        <f t="array" ref="BP10">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>3</v>
       </c>
       <c r="BQ10" s="24" t="str" cm="1">
@@ -8024,8 +8443,30 @@
 )</f>
         <v>★★★☆  Target (expected)</v>
       </c>
-      <c r="BR10" s="33">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR10" s="33" cm="1">
+        <f t="array" ref="BR10">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>5</v>
       </c>
       <c r="BS10" s="24" t="str" cm="1">
@@ -8313,8 +8754,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>8.4500000000000011</v>
       </c>
-      <c r="BP11" s="35">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP11" s="35" cm="1">
+        <f t="array" ref="BP11">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>2</v>
       </c>
       <c r="BQ11" s="24" t="str" cm="1">
@@ -8329,8 +8792,30 @@
 )</f>
         <v>★★☆☆  Low (support, control, debuff)</v>
       </c>
-      <c r="BR11" s="33">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR11" s="33" cm="1">
+        <f t="array" ref="BR11">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>2</v>
       </c>
       <c r="BS11" s="24" t="str" cm="1">
@@ -8618,8 +9103,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>-</v>
       </c>
-      <c r="BP12" s="35" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP12" s="35" t="str" cm="1">
+        <f t="array" ref="BP12">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BQ12" s="24" t="str" cm="1">
@@ -8634,8 +9141,30 @@
 )</f>
         <v>-</v>
       </c>
-      <c r="BR12" s="33" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR12" s="33" t="str" cm="1">
+        <f t="array" ref="BR12">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BS12" s="24" t="str" cm="1">
@@ -8923,8 +9452,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>-</v>
       </c>
-      <c r="BP13" s="35" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP13" s="35" t="str" cm="1">
+        <f t="array" ref="BP13">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BQ13" s="24" t="str" cm="1">
@@ -8939,8 +9490,30 @@
 )</f>
         <v>-</v>
       </c>
-      <c r="BR13" s="33" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR13" s="33" t="str" cm="1">
+        <f t="array" ref="BR13">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BS13" s="24" t="str" cm="1">
@@ -9228,8 +9801,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>-</v>
       </c>
-      <c r="BP14" s="35" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP14" s="35" t="str" cm="1">
+        <f t="array" ref="BP14">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BQ14" s="24" t="str" cm="1">
@@ -9244,8 +9839,30 @@
 )</f>
         <v>-</v>
       </c>
-      <c r="BR14" s="33" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR14" s="33" t="str" cm="1">
+        <f t="array" ref="BR14">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BS14" s="24" t="str" cm="1">
@@ -9533,8 +10150,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>8.5556250000000009</v>
       </c>
-      <c r="BP15" s="35">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP15" s="35" cm="1">
+        <f t="array" ref="BP15">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>2</v>
       </c>
       <c r="BQ15" s="24" t="str" cm="1">
@@ -9549,8 +10188,30 @@
 )</f>
         <v>★★☆☆  Low (support, control, debuff)</v>
       </c>
-      <c r="BR15" s="33">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR15" s="33" cm="1">
+        <f t="array" ref="BR15">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>2</v>
       </c>
       <c r="BS15" s="24" t="str" cm="1">
@@ -9838,8 +10499,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>-</v>
       </c>
-      <c r="BP16" s="35" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP16" s="35" t="str" cm="1">
+        <f t="array" ref="BP16">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BQ16" s="24" t="str" cm="1">
@@ -9854,8 +10537,30 @@
 )</f>
         <v>-</v>
       </c>
-      <c r="BR16" s="33" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR16" s="33" t="str" cm="1">
+        <f t="array" ref="BR16">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BS16" s="24" t="str" cm="1">
@@ -10143,8 +10848,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>-</v>
       </c>
-      <c r="BP17" s="35" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP17" s="35" t="str" cm="1">
+        <f t="array" ref="BP17">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BQ17" s="24" t="str" cm="1">
@@ -10159,8 +10886,30 @@
 )</f>
         <v>-</v>
       </c>
-      <c r="BR17" s="33" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR17" s="33" t="str" cm="1">
+        <f t="array" ref="BR17">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BS17" s="24" t="str" cm="1">
@@ -10448,8 +11197,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>-</v>
       </c>
-      <c r="BP18" s="35" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP18" s="35" t="str" cm="1">
+        <f t="array" ref="BP18">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BQ18" s="24" t="str" cm="1">
@@ -10464,8 +11235,30 @@
 )</f>
         <v>-</v>
       </c>
-      <c r="BR18" s="33" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR18" s="33" t="str" cm="1">
+        <f t="array" ref="BR18">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BS18" s="24" t="str" cm="1">
@@ -10753,8 +11546,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>-</v>
       </c>
-      <c r="BP19" s="35" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP19" s="35" t="str" cm="1">
+        <f t="array" ref="BP19">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BQ19" s="24" t="str" cm="1">
@@ -10769,8 +11584,30 @@
 )</f>
         <v>-</v>
       </c>
-      <c r="BR19" s="33" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR19" s="33" t="str" cm="1">
+        <f t="array" ref="BR19">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BS19" s="24" t="str" cm="1">
@@ -11058,8 +11895,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>-</v>
       </c>
-      <c r="BP20" s="35" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP20" s="35" t="str" cm="1">
+        <f t="array" ref="BP20">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BQ20" s="24" t="str" cm="1">
@@ -11074,8 +11933,30 @@
 )</f>
         <v>-</v>
       </c>
-      <c r="BR20" s="33" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR20" s="33" t="str" cm="1">
+        <f t="array" ref="BR20">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BS20" s="24" t="str" cm="1">
@@ -11358,8 +12239,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>83.183333333333337</v>
       </c>
-      <c r="BP21" s="35">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP21" s="35" cm="1">
+        <f t="array" ref="BP21">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>3</v>
       </c>
       <c r="BQ21" s="24" t="str" cm="1">
@@ -11374,8 +12277,30 @@
 )</f>
         <v>★★★☆  Target (expected)</v>
       </c>
-      <c r="BR21" s="33">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR21" s="33" cm="1">
+        <f t="array" ref="BR21">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>5</v>
       </c>
       <c r="BS21" s="24" t="str" cm="1">
@@ -11658,8 +12583,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>-</v>
       </c>
-      <c r="BP22" s="35" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP22" s="35" t="str" cm="1">
+        <f t="array" ref="BP22">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BQ22" s="24" t="str" cm="1">
@@ -11674,8 +12621,30 @@
 )</f>
         <v>-</v>
       </c>
-      <c r="BR22" s="33" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR22" s="33" t="str" cm="1">
+        <f t="array" ref="BR22">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BS22" s="24" t="str" cm="1">
@@ -11958,8 +12927,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>24.404412500000003</v>
       </c>
-      <c r="BP23" s="35">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP23" s="35" cm="1">
+        <f t="array" ref="BP23">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>4</v>
       </c>
       <c r="BQ23" s="24" t="str" cm="1">
@@ -11974,8 +12965,30 @@
 )</f>
         <v>★★★★  High (heavy hitter)</v>
       </c>
-      <c r="BR23" s="33">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR23" s="33" cm="1">
+        <f t="array" ref="BR23">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>4</v>
       </c>
       <c r="BS23" s="24" t="str" cm="1">
@@ -12258,8 +13271,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>-</v>
       </c>
-      <c r="BP24" s="35" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP24" s="35" t="str" cm="1">
+        <f t="array" ref="BP24">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BQ24" s="24" t="str" cm="1">
@@ -12274,8 +13309,30 @@
 )</f>
         <v>-</v>
       </c>
-      <c r="BR24" s="33" t="str">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR24" s="33" t="str" cm="1">
+        <f t="array" ref="BR24">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>-</v>
       </c>
       <c r="BS24" s="24" t="str" cm="1">
@@ -12558,8 +13615,30 @@
         <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]]),(N("Only show if the tactic damage is showing a number")+N("Damage per round: Damage per tactic / number of rounds")+((N("Damage per tactic")+DPRTacticsCalculator[[#This Row],[Average Tactic Damage Total]])/(N("Number of rounds")+DPRTacticsCalculator[[#This Row],[Round]]))),"-")</f>
         <v>31.684485416666671</v>
       </c>
-      <c r="BP25" s="35">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),0),"-")</f>
+      <c r="BP25" s="35" cm="1">
+        <f t="array" ref="BP25">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Damage per Round per Target]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>4</v>
       </c>
       <c r="BQ25" s="24" t="str" cm="1">
@@ -12574,8 +13653,30 @@
 )</f>
         <v>★★★★  High (heavy hitter)</v>
       </c>
-      <c r="BR25" s="33">
-        <f>IF(ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),_xlfn.IFS((DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),5,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),4,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),3,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),2,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=(DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),1,(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),0),"-")</f>
+      <c r="BR25" s="33" cm="1">
+        <f t="array" ref="BR25">IF(
+    ISNUMBER(DPRTacticsCalculator[[#This Row],[Total Damage per Round]]),
+    _xlfn.IFS(
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]=0),
+            0,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/3)),
+            5,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/6)),
+            4,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/12)),
+            3,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&gt;
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            2,
+        (DPRTacticsCalculator[[#This Row],[Total Damage per Round]]&lt;=
+            (DPRTacticsCalculator[[#This Row],[Max Expected Enemy HP at CR or LV]]/24)),
+            1
+    ),
+    "-"
+)</f>
         <v>4</v>
       </c>
       <c r="BS25" s="24" t="str" cm="1">
